--- a/RS03ASHS/Omaha_Cal_Info_RS03ASHS_00001.xlsx
+++ b/RS03ASHS/Omaha_Cal_Info_RS03ASHS_00001.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Test and Commissioning OOI\Cabled Instruments\Repaired GIT 20150715\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="270" yWindow="510" windowWidth="24615" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9612"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Ref Des</t>
   </si>
@@ -94,6 +99,15 @@
   <si>
     <t>130° 00.835' W</t>
   </si>
+  <si>
+    <t>RS03ASHS-ID03A</t>
+  </si>
+  <si>
+    <t>RS03ASHS-ID03A-01-CAMHDA301</t>
+  </si>
+  <si>
+    <t>Need to fix parameters in red.</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -112,50 +126,61 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -181,6 +206,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -240,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -363,7 +407,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,6 +463,22 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,6 +488,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -477,7 +539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,7 +574,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,18 +786,18 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -785,7 +847,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>11</v>
       </c>
@@ -815,11 +877,11 @@
         <v>17</v>
       </c>
       <c r="K2" s="46"/>
-      <c r="L2" s="50">
+      <c r="L2" s="49">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>45.933716666666669</v>
       </c>
-      <c r="M2" s="50">
+      <c r="M2" s="49">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-130.01391666666666</v>
       </c>
@@ -837,35 +899,74 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
+    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="70">
+        <v>1</v>
+      </c>
+      <c r="D3" s="71">
+        <v>41848</v>
+      </c>
+      <c r="E3" s="72">
+        <v>0.37785879629629626</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="70">
+        <v>1541</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="46"/>
+      <c r="L3" s="49">
+        <f>((LEFT(G3,(FIND("°",G3,1)-1)))+(MID(G3,(FIND("°",G3,1)+1),(FIND("'",G3,1))-(FIND("°",G3,1)+1))/60))*(IF(RIGHT(G3,1)="N",1,-1))</f>
+        <v>45.933716666666669</v>
+      </c>
+      <c r="M3" s="49">
+        <f>((LEFT(H3,(FIND("°",H3,1)-1)))+(MID(H3,(FIND("°",H3,1)+1),(FIND("'",H3,1))-(FIND("°",H3,1)+1))/60))*(IF(RIGHT(H3,1)="E",1,-1))</f>
+        <v>-130.01391666666666</v>
+      </c>
+      <c r="N3" s="46"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -879,3092 +980,3102 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="41" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:26" s="41" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="53" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-    </row>
-    <row r="3" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+    <row r="2" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+    </row>
+    <row r="3" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="55">
         <v>1</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="55">
         <v>1</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-    </row>
-    <row r="4" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+    </row>
+    <row r="4" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="55">
         <v>1</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-    </row>
-    <row r="5" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+    </row>
+    <row r="5" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="55">
         <v>1</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-    </row>
-    <row r="6" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+    </row>
+    <row r="6" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="55">
         <v>1</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="55">
         <v>21969</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-    </row>
-    <row r="7" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-    </row>
-    <row r="8" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-    </row>
-    <row r="9" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-    </row>
-    <row r="10" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-    </row>
-    <row r="11" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-    </row>
-    <row r="12" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-    </row>
-    <row r="13" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-    </row>
-    <row r="14" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-    </row>
-    <row r="15" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-    </row>
-    <row r="16" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-    </row>
-    <row r="17" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-    </row>
-    <row r="18" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-    </row>
-    <row r="19" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-    </row>
-    <row r="20" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-    </row>
-    <row r="21" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-    </row>
-    <row r="22" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-    </row>
-    <row r="23" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-    </row>
-    <row r="24" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-    </row>
-    <row r="25" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-    </row>
-    <row r="26" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-    </row>
-    <row r="27" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-    </row>
-    <row r="28" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-    </row>
-    <row r="29" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-    </row>
-    <row r="30" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-    </row>
-    <row r="31" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-    </row>
-    <row r="32" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-    </row>
-    <row r="33" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-    </row>
-    <row r="34" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-    </row>
-    <row r="35" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-    </row>
-    <row r="36" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-    </row>
-    <row r="37" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-    </row>
-    <row r="38" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-    </row>
-    <row r="39" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="55"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-    </row>
-    <row r="40" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-    </row>
-    <row r="41" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-    </row>
-    <row r="42" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-    </row>
-    <row r="43" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="63"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="59"/>
-      <c r="Y43" s="59"/>
-      <c r="Z43" s="59"/>
-    </row>
-    <row r="44" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="59"/>
-      <c r="Y44" s="59"/>
-      <c r="Z44" s="59"/>
-    </row>
-    <row r="45" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-    </row>
-    <row r="46" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="55"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
-    </row>
-    <row r="47" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="59"/>
-      <c r="U47" s="59"/>
-      <c r="V47" s="59"/>
-      <c r="W47" s="59"/>
-      <c r="X47" s="59"/>
-      <c r="Y47" s="59"/>
-      <c r="Z47" s="59"/>
-    </row>
-    <row r="48" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59"/>
-      <c r="U48" s="59"/>
-      <c r="V48" s="59"/>
-      <c r="W48" s="59"/>
-      <c r="X48" s="59"/>
-      <c r="Y48" s="59"/>
-      <c r="Z48" s="59"/>
-    </row>
-    <row r="49" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="59"/>
-      <c r="U49" s="59"/>
-      <c r="V49" s="59"/>
-      <c r="W49" s="59"/>
-      <c r="X49" s="59"/>
-      <c r="Y49" s="59"/>
-      <c r="Z49" s="59"/>
-    </row>
-    <row r="50" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="59"/>
-      <c r="U50" s="59"/>
-      <c r="V50" s="59"/>
-      <c r="W50" s="59"/>
-      <c r="X50" s="59"/>
-      <c r="Y50" s="59"/>
-      <c r="Z50" s="59"/>
-    </row>
-    <row r="51" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="57"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="59"/>
-      <c r="U51" s="59"/>
-      <c r="V51" s="59"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="59"/>
-      <c r="Y51" s="59"/>
-      <c r="Z51" s="59"/>
-    </row>
-    <row r="52" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="57"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="59"/>
-      <c r="U52" s="59"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="59"/>
-      <c r="Y52" s="59"/>
-      <c r="Z52" s="59"/>
-    </row>
-    <row r="53" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="59"/>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="59"/>
-      <c r="Z53" s="59"/>
-    </row>
-    <row r="54" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="55"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="59"/>
-      <c r="U54" s="59"/>
-      <c r="V54" s="59"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="59"/>
-      <c r="Y54" s="59"/>
-      <c r="Z54" s="59"/>
-    </row>
-    <row r="55" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="55"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="59"/>
-      <c r="U55" s="59"/>
-      <c r="V55" s="59"/>
-      <c r="W55" s="59"/>
-      <c r="X55" s="59"/>
-      <c r="Y55" s="59"/>
-      <c r="Z55" s="59"/>
-    </row>
-    <row r="56" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="59"/>
-      <c r="Y56" s="59"/>
-      <c r="Z56" s="59"/>
-    </row>
-    <row r="57" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="59"/>
-      <c r="U57" s="59"/>
-      <c r="V57" s="59"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="59"/>
-      <c r="Y57" s="59"/>
-      <c r="Z57" s="59"/>
-    </row>
-    <row r="58" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="59"/>
-      <c r="T58" s="59"/>
-      <c r="U58" s="59"/>
-      <c r="V58" s="59"/>
-      <c r="W58" s="59"/>
-      <c r="X58" s="59"/>
-      <c r="Y58" s="59"/>
-      <c r="Z58" s="59"/>
-    </row>
-    <row r="59" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="59"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="59"/>
-      <c r="Y59" s="59"/>
-      <c r="Z59" s="59"/>
-    </row>
-    <row r="60" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="59"/>
-      <c r="S60" s="59"/>
-      <c r="T60" s="59"/>
-      <c r="U60" s="59"/>
-      <c r="V60" s="59"/>
-      <c r="W60" s="59"/>
-      <c r="X60" s="59"/>
-      <c r="Y60" s="59"/>
-      <c r="Z60" s="59"/>
-    </row>
-    <row r="61" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
-      <c r="T61" s="59"/>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59"/>
-      <c r="X61" s="59"/>
-      <c r="Y61" s="59"/>
-      <c r="Z61" s="59"/>
-    </row>
-    <row r="62" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="55"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
-      <c r="S62" s="59"/>
-      <c r="T62" s="59"/>
-      <c r="U62" s="59"/>
-      <c r="V62" s="59"/>
-      <c r="W62" s="59"/>
-      <c r="X62" s="59"/>
-      <c r="Y62" s="59"/>
-      <c r="Z62" s="59"/>
-    </row>
-    <row r="63" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-      <c r="S63" s="59"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="59"/>
-      <c r="V63" s="59"/>
-      <c r="W63" s="59"/>
-      <c r="X63" s="59"/>
-      <c r="Y63" s="59"/>
-      <c r="Z63" s="59"/>
-    </row>
-    <row r="64" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="55"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="59"/>
-      <c r="S64" s="59"/>
-      <c r="T64" s="59"/>
-      <c r="U64" s="59"/>
-      <c r="V64" s="59"/>
-      <c r="W64" s="59"/>
-      <c r="X64" s="59"/>
-      <c r="Y64" s="59"/>
-      <c r="Z64" s="59"/>
-    </row>
-    <row r="65" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="55"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="59"/>
-      <c r="T65" s="59"/>
-      <c r="U65" s="59"/>
-      <c r="V65" s="59"/>
-      <c r="W65" s="59"/>
-      <c r="X65" s="59"/>
-      <c r="Y65" s="59"/>
-      <c r="Z65" s="59"/>
-    </row>
-    <row r="66" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="55"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="59"/>
-      <c r="V66" s="59"/>
-      <c r="W66" s="59"/>
-      <c r="X66" s="59"/>
-      <c r="Y66" s="59"/>
-      <c r="Z66" s="59"/>
-    </row>
-    <row r="67" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
-      <c r="S67" s="59"/>
-      <c r="T67" s="59"/>
-      <c r="U67" s="59"/>
-      <c r="V67" s="59"/>
-      <c r="W67" s="59"/>
-      <c r="X67" s="59"/>
-      <c r="Y67" s="59"/>
-      <c r="Z67" s="59"/>
-    </row>
-    <row r="68" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="55"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
-      <c r="O68" s="59"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="59"/>
-      <c r="S68" s="59"/>
-      <c r="T68" s="59"/>
-      <c r="U68" s="59"/>
-      <c r="V68" s="59"/>
-      <c r="W68" s="59"/>
-      <c r="X68" s="59"/>
-      <c r="Y68" s="59"/>
-      <c r="Z68" s="59"/>
-    </row>
-    <row r="69" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="55"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="59"/>
-      <c r="T69" s="59"/>
-      <c r="U69" s="59"/>
-      <c r="V69" s="59"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="59"/>
-      <c r="Y69" s="59"/>
-      <c r="Z69" s="59"/>
-    </row>
-    <row r="70" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="55"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="59"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="59"/>
-      <c r="S70" s="59"/>
-      <c r="T70" s="59"/>
-      <c r="U70" s="59"/>
-      <c r="V70" s="59"/>
-      <c r="W70" s="59"/>
-      <c r="X70" s="59"/>
-      <c r="Y70" s="59"/>
-      <c r="Z70" s="59"/>
-    </row>
-    <row r="71" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="55"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="59"/>
-      <c r="S71" s="59"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="59"/>
-      <c r="V71" s="59"/>
-      <c r="W71" s="59"/>
-      <c r="X71" s="59"/>
-      <c r="Y71" s="59"/>
-      <c r="Z71" s="59"/>
-    </row>
-    <row r="72" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="55"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="59"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="59"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="59"/>
-    </row>
-    <row r="73" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="55"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="59"/>
-      <c r="S73" s="59"/>
-      <c r="T73" s="59"/>
-      <c r="U73" s="59"/>
-      <c r="V73" s="59"/>
-      <c r="W73" s="59"/>
-      <c r="X73" s="59"/>
-      <c r="Y73" s="59"/>
-      <c r="Z73" s="59"/>
-    </row>
-    <row r="74" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="63"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="59"/>
-      <c r="M74" s="59"/>
-      <c r="N74" s="59"/>
-      <c r="O74" s="59"/>
-      <c r="P74" s="59"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="59"/>
-      <c r="S74" s="59"/>
-      <c r="T74" s="59"/>
-      <c r="U74" s="59"/>
-      <c r="V74" s="59"/>
-      <c r="W74" s="59"/>
-      <c r="X74" s="59"/>
-      <c r="Y74" s="59"/>
-      <c r="Z74" s="59"/>
-    </row>
-    <row r="75" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="55"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="59"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="59"/>
-      <c r="S75" s="59"/>
-      <c r="T75" s="59"/>
-      <c r="U75" s="59"/>
-      <c r="V75" s="59"/>
-      <c r="W75" s="59"/>
-      <c r="X75" s="59"/>
-      <c r="Y75" s="59"/>
-      <c r="Z75" s="59"/>
-    </row>
-    <row r="76" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="55"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="59"/>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="59"/>
-      <c r="S76" s="59"/>
-      <c r="T76" s="59"/>
-      <c r="U76" s="59"/>
-      <c r="V76" s="59"/>
-      <c r="W76" s="59"/>
-      <c r="X76" s="59"/>
-      <c r="Y76" s="59"/>
-      <c r="Z76" s="59"/>
-    </row>
-    <row r="77" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="63"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="59"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="59"/>
-      <c r="S77" s="59"/>
-      <c r="T77" s="59"/>
-      <c r="U77" s="59"/>
-      <c r="V77" s="59"/>
-      <c r="W77" s="59"/>
-      <c r="X77" s="59"/>
-      <c r="Y77" s="59"/>
-      <c r="Z77" s="59"/>
-    </row>
-    <row r="78" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="55"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="59"/>
-      <c r="N78" s="59"/>
-      <c r="O78" s="59"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="59"/>
-      <c r="S78" s="59"/>
-      <c r="T78" s="59"/>
-      <c r="U78" s="59"/>
-      <c r="V78" s="59"/>
-      <c r="W78" s="59"/>
-      <c r="X78" s="59"/>
-      <c r="Y78" s="59"/>
-      <c r="Z78" s="59"/>
-    </row>
-    <row r="79" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="55"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="59"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="59"/>
-      <c r="S79" s="59"/>
-      <c r="T79" s="59"/>
-      <c r="U79" s="59"/>
-      <c r="V79" s="59"/>
-      <c r="W79" s="59"/>
-      <c r="X79" s="59"/>
-      <c r="Y79" s="59"/>
-      <c r="Z79" s="59"/>
-    </row>
-    <row r="80" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="63"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="59"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="59"/>
-      <c r="S80" s="59"/>
-      <c r="T80" s="59"/>
-      <c r="U80" s="59"/>
-      <c r="V80" s="59"/>
-      <c r="W80" s="59"/>
-      <c r="X80" s="59"/>
-      <c r="Y80" s="59"/>
-      <c r="Z80" s="59"/>
-    </row>
-    <row r="81" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="55"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="59"/>
-      <c r="S81" s="59"/>
-      <c r="T81" s="59"/>
-      <c r="U81" s="59"/>
-      <c r="V81" s="59"/>
-      <c r="W81" s="59"/>
-      <c r="X81" s="59"/>
-      <c r="Y81" s="59"/>
-      <c r="Z81" s="59"/>
-    </row>
-    <row r="82" spans="1:26" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="55"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="59"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="59"/>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="59"/>
-      <c r="S82" s="59"/>
-      <c r="T82" s="59"/>
-      <c r="U82" s="59"/>
-      <c r="V82" s="59"/>
-      <c r="W82" s="59"/>
-      <c r="X82" s="59"/>
-      <c r="Y82" s="59"/>
-      <c r="Z82" s="59"/>
-    </row>
-    <row r="83" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="63"/>
-      <c r="B83" s="62"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
-      <c r="S83" s="59"/>
-      <c r="T83" s="59"/>
-      <c r="U83" s="59"/>
-      <c r="V83" s="59"/>
-      <c r="W83" s="59"/>
-      <c r="X83" s="59"/>
-      <c r="Y83" s="59"/>
-      <c r="Z83" s="59"/>
-    </row>
-    <row r="84" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="63"/>
-      <c r="B84" s="62"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="59"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-      <c r="S84" s="59"/>
-      <c r="T84" s="59"/>
-      <c r="U84" s="59"/>
-      <c r="V84" s="59"/>
-      <c r="W84" s="59"/>
-      <c r="X84" s="59"/>
-      <c r="Y84" s="59"/>
-      <c r="Z84" s="59"/>
-    </row>
-    <row r="85" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="63"/>
-      <c r="B85" s="62"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="59"/>
-      <c r="U85" s="59"/>
-      <c r="V85" s="59"/>
-      <c r="W85" s="59"/>
-      <c r="X85" s="59"/>
-      <c r="Y85" s="59"/>
-      <c r="Z85" s="59"/>
-    </row>
-    <row r="86" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="69"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="59"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="59"/>
-      <c r="S86" s="59"/>
-      <c r="T86" s="59"/>
-      <c r="U86" s="59"/>
-      <c r="V86" s="59"/>
-      <c r="W86" s="59"/>
-      <c r="X86" s="59"/>
-      <c r="Y86" s="59"/>
-      <c r="Z86" s="59"/>
-    </row>
-    <row r="87" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="63"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="59"/>
-      <c r="M87" s="59"/>
-      <c r="N87" s="59"/>
-      <c r="O87" s="59"/>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="59"/>
-      <c r="S87" s="59"/>
-      <c r="T87" s="59"/>
-      <c r="U87" s="59"/>
-      <c r="V87" s="59"/>
-      <c r="W87" s="59"/>
-      <c r="X87" s="59"/>
-      <c r="Y87" s="59"/>
-      <c r="Z87" s="59"/>
-    </row>
-    <row r="88" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="63"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="69"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="59"/>
-      <c r="N88" s="59"/>
-      <c r="O88" s="59"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="59"/>
-      <c r="S88" s="59"/>
-      <c r="T88" s="59"/>
-      <c r="U88" s="59"/>
-      <c r="V88" s="59"/>
-      <c r="W88" s="59"/>
-      <c r="X88" s="59"/>
-      <c r="Y88" s="59"/>
-      <c r="Z88" s="59"/>
-    </row>
-    <row r="89" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="63"/>
-      <c r="B89" s="62"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="59"/>
-      <c r="L89" s="59"/>
-      <c r="M89" s="59"/>
-      <c r="N89" s="59"/>
-      <c r="O89" s="59"/>
-      <c r="P89" s="59"/>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="59"/>
-      <c r="S89" s="59"/>
-      <c r="T89" s="59"/>
-      <c r="U89" s="59"/>
-      <c r="V89" s="59"/>
-      <c r="W89" s="59"/>
-      <c r="X89" s="59"/>
-      <c r="Y89" s="59"/>
-      <c r="Z89" s="59"/>
-    </row>
-    <row r="90" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="55"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="59"/>
-      <c r="N90" s="59"/>
-      <c r="O90" s="59"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="59"/>
-      <c r="S90" s="59"/>
-      <c r="T90" s="59"/>
-      <c r="U90" s="59"/>
-      <c r="V90" s="59"/>
-      <c r="W90" s="59"/>
-      <c r="X90" s="59"/>
-      <c r="Y90" s="59"/>
-      <c r="Z90" s="59"/>
-    </row>
-    <row r="91" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="55"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="59"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="59"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="59"/>
-      <c r="N91" s="59"/>
-      <c r="O91" s="59"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="59"/>
-      <c r="S91" s="59"/>
-      <c r="T91" s="59"/>
-      <c r="U91" s="59"/>
-      <c r="V91" s="59"/>
-      <c r="W91" s="59"/>
-      <c r="X91" s="59"/>
-      <c r="Y91" s="59"/>
-      <c r="Z91" s="59"/>
-    </row>
-    <row r="92" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="55"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
-      <c r="N92" s="59"/>
-      <c r="O92" s="59"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="59"/>
-      <c r="S92" s="59"/>
-      <c r="T92" s="59"/>
-      <c r="U92" s="59"/>
-      <c r="V92" s="59"/>
-      <c r="W92" s="59"/>
-      <c r="X92" s="59"/>
-      <c r="Y92" s="59"/>
-      <c r="Z92" s="59"/>
-    </row>
-    <row r="93" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="55"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="59"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="59"/>
-      <c r="J93" s="59"/>
-      <c r="K93" s="59"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="59"/>
-      <c r="N93" s="59"/>
-      <c r="O93" s="59"/>
-      <c r="P93" s="59"/>
-      <c r="Q93" s="59"/>
-      <c r="R93" s="59"/>
-      <c r="S93" s="59"/>
-      <c r="T93" s="59"/>
-      <c r="U93" s="59"/>
-      <c r="V93" s="59"/>
-      <c r="W93" s="59"/>
-      <c r="X93" s="59"/>
-      <c r="Y93" s="59"/>
-      <c r="Z93" s="59"/>
-    </row>
-    <row r="94" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="55"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="59"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="59"/>
-      <c r="L94" s="59"/>
-      <c r="M94" s="59"/>
-      <c r="N94" s="59"/>
-      <c r="O94" s="59"/>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="59"/>
-      <c r="R94" s="59"/>
-      <c r="S94" s="59"/>
-      <c r="T94" s="59"/>
-      <c r="U94" s="59"/>
-      <c r="V94" s="59"/>
-      <c r="W94" s="59"/>
-      <c r="X94" s="59"/>
-      <c r="Y94" s="59"/>
-      <c r="Z94" s="59"/>
-    </row>
-    <row r="95" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="63"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="59"/>
-      <c r="K95" s="59"/>
-      <c r="L95" s="59"/>
-      <c r="M95" s="59"/>
-      <c r="N95" s="59"/>
-      <c r="O95" s="59"/>
-      <c r="P95" s="59"/>
-      <c r="Q95" s="59"/>
-      <c r="R95" s="59"/>
-      <c r="S95" s="59"/>
-      <c r="T95" s="59"/>
-      <c r="U95" s="59"/>
-      <c r="V95" s="59"/>
-      <c r="W95" s="59"/>
-      <c r="X95" s="59"/>
-      <c r="Y95" s="59"/>
-      <c r="Z95" s="59"/>
-    </row>
-    <row r="96" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="63"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="59"/>
-      <c r="I96" s="59"/>
-      <c r="J96" s="59"/>
-      <c r="K96" s="59"/>
-      <c r="L96" s="59"/>
-      <c r="M96" s="59"/>
-      <c r="N96" s="59"/>
-      <c r="O96" s="59"/>
-      <c r="P96" s="59"/>
-      <c r="Q96" s="59"/>
-      <c r="R96" s="59"/>
-      <c r="S96" s="59"/>
-      <c r="T96" s="59"/>
-      <c r="U96" s="59"/>
-      <c r="V96" s="59"/>
-      <c r="W96" s="59"/>
-      <c r="X96" s="59"/>
-      <c r="Y96" s="59"/>
-      <c r="Z96" s="59"/>
-    </row>
-    <row r="97" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="63"/>
-      <c r="B97" s="62"/>
-      <c r="C97" s="56"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="65"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59"/>
-      <c r="J97" s="59"/>
-      <c r="K97" s="59"/>
-      <c r="L97" s="59"/>
-      <c r="M97" s="59"/>
-      <c r="N97" s="59"/>
-      <c r="O97" s="59"/>
-      <c r="P97" s="59"/>
-      <c r="Q97" s="59"/>
-      <c r="R97" s="59"/>
-      <c r="S97" s="59"/>
-      <c r="T97" s="59"/>
-      <c r="U97" s="59"/>
-      <c r="V97" s="59"/>
-      <c r="W97" s="59"/>
-      <c r="X97" s="59"/>
-      <c r="Y97" s="59"/>
-      <c r="Z97" s="59"/>
-    </row>
-    <row r="98" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="63"/>
-      <c r="B98" s="62"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="59"/>
-      <c r="L98" s="59"/>
-      <c r="M98" s="59"/>
-      <c r="N98" s="59"/>
-      <c r="O98" s="59"/>
-      <c r="P98" s="59"/>
-      <c r="Q98" s="59"/>
-      <c r="R98" s="59"/>
-      <c r="S98" s="59"/>
-      <c r="T98" s="59"/>
-      <c r="U98" s="59"/>
-      <c r="V98" s="59"/>
-      <c r="W98" s="59"/>
-      <c r="X98" s="59"/>
-      <c r="Y98" s="59"/>
-      <c r="Z98" s="59"/>
-    </row>
-    <row r="99" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="63"/>
-      <c r="B99" s="62"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="59"/>
-      <c r="N99" s="59"/>
-      <c r="O99" s="59"/>
-      <c r="P99" s="59"/>
-      <c r="Q99" s="59"/>
-      <c r="R99" s="59"/>
-      <c r="S99" s="59"/>
-      <c r="T99" s="59"/>
-      <c r="U99" s="59"/>
-      <c r="V99" s="59"/>
-      <c r="W99" s="59"/>
-      <c r="X99" s="59"/>
-      <c r="Y99" s="59"/>
-      <c r="Z99" s="59"/>
-    </row>
-    <row r="100" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="55"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
-      <c r="K100" s="59"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="59"/>
-      <c r="N100" s="59"/>
-      <c r="O100" s="59"/>
-      <c r="P100" s="59"/>
-      <c r="Q100" s="59"/>
-      <c r="R100" s="59"/>
-      <c r="S100" s="59"/>
-      <c r="T100" s="59"/>
-      <c r="U100" s="59"/>
-      <c r="V100" s="59"/>
-      <c r="W100" s="59"/>
-      <c r="X100" s="59"/>
-      <c r="Y100" s="59"/>
-      <c r="Z100" s="59"/>
-    </row>
-    <row r="101" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="55"/>
-      <c r="B101" s="62"/>
-      <c r="C101" s="56"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="59"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="59"/>
-      <c r="K101" s="59"/>
-      <c r="L101" s="59"/>
-      <c r="M101" s="59"/>
-      <c r="N101" s="59"/>
-      <c r="O101" s="59"/>
-      <c r="P101" s="59"/>
-      <c r="Q101" s="59"/>
-      <c r="R101" s="59"/>
-      <c r="S101" s="59"/>
-      <c r="T101" s="59"/>
-      <c r="U101" s="59"/>
-      <c r="V101" s="59"/>
-      <c r="W101" s="59"/>
-      <c r="X101" s="59"/>
-      <c r="Y101" s="59"/>
-      <c r="Z101" s="59"/>
-    </row>
-    <row r="102" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="55"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="59"/>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="59"/>
-      <c r="L102" s="59"/>
-      <c r="M102" s="59"/>
-      <c r="N102" s="59"/>
-      <c r="O102" s="59"/>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="59"/>
-      <c r="R102" s="59"/>
-      <c r="S102" s="59"/>
-      <c r="T102" s="59"/>
-      <c r="U102" s="59"/>
-      <c r="V102" s="59"/>
-      <c r="W102" s="59"/>
-      <c r="X102" s="59"/>
-      <c r="Y102" s="59"/>
-      <c r="Z102" s="59"/>
-    </row>
-    <row r="103" spans="1:26" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="63"/>
-      <c r="B103" s="62"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="59"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-      <c r="J103" s="59"/>
-      <c r="K103" s="59"/>
-      <c r="L103" s="59"/>
-      <c r="M103" s="59"/>
-      <c r="N103" s="59"/>
-      <c r="O103" s="59"/>
-      <c r="P103" s="59"/>
-      <c r="Q103" s="59"/>
-      <c r="R103" s="59"/>
-      <c r="S103" s="59"/>
-      <c r="T103" s="59"/>
-      <c r="U103" s="59"/>
-      <c r="V103" s="59"/>
-      <c r="W103" s="59"/>
-      <c r="X103" s="59"/>
-      <c r="Y103" s="59"/>
-      <c r="Z103" s="59"/>
-    </row>
-    <row r="104" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="57"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="J104" s="59"/>
-      <c r="K104" s="59"/>
-      <c r="L104" s="59"/>
-      <c r="M104" s="59"/>
-      <c r="N104" s="59"/>
-      <c r="O104" s="59"/>
-      <c r="P104" s="59"/>
-      <c r="Q104" s="59"/>
-      <c r="R104" s="59"/>
-      <c r="S104" s="59"/>
-      <c r="T104" s="59"/>
-      <c r="U104" s="59"/>
-      <c r="V104" s="59"/>
-      <c r="W104" s="59"/>
-      <c r="X104" s="59"/>
-      <c r="Y104" s="59"/>
-      <c r="Z104" s="59"/>
-    </row>
-    <row r="105" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="55"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59"/>
-      <c r="J105" s="59"/>
-      <c r="K105" s="59"/>
-      <c r="L105" s="59"/>
-      <c r="M105" s="59"/>
-      <c r="N105" s="59"/>
-      <c r="O105" s="59"/>
-      <c r="P105" s="59"/>
-      <c r="Q105" s="59"/>
-      <c r="R105" s="59"/>
-      <c r="S105" s="59"/>
-      <c r="T105" s="59"/>
-      <c r="U105" s="59"/>
-      <c r="V105" s="59"/>
-      <c r="W105" s="59"/>
-      <c r="X105" s="59"/>
-      <c r="Y105" s="59"/>
-      <c r="Z105" s="59"/>
-    </row>
-    <row r="106" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="55"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="61"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="59"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="59"/>
-      <c r="L106" s="59"/>
-      <c r="M106" s="59"/>
-      <c r="N106" s="59"/>
-      <c r="O106" s="59"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="59"/>
-      <c r="R106" s="59"/>
-      <c r="S106" s="59"/>
-      <c r="T106" s="59"/>
-      <c r="U106" s="59"/>
-      <c r="V106" s="59"/>
-      <c r="W106" s="59"/>
-      <c r="X106" s="59"/>
-      <c r="Y106" s="59"/>
-      <c r="Z106" s="59"/>
-    </row>
-    <row r="107" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="55"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="59"/>
-      <c r="L107" s="59"/>
-      <c r="M107" s="59"/>
-      <c r="N107" s="59"/>
-      <c r="O107" s="59"/>
-      <c r="P107" s="59"/>
-      <c r="Q107" s="59"/>
-      <c r="R107" s="59"/>
-      <c r="S107" s="59"/>
-      <c r="T107" s="59"/>
-      <c r="U107" s="59"/>
-      <c r="V107" s="59"/>
-      <c r="W107" s="59"/>
-      <c r="X107" s="59"/>
-      <c r="Y107" s="59"/>
-      <c r="Z107" s="59"/>
-    </row>
-    <row r="108" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="55"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="61"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="59"/>
-      <c r="J108" s="59"/>
-      <c r="K108" s="59"/>
-      <c r="L108" s="59"/>
-      <c r="M108" s="59"/>
-      <c r="N108" s="59"/>
-      <c r="O108" s="59"/>
-      <c r="P108" s="59"/>
-      <c r="Q108" s="59"/>
-      <c r="R108" s="59"/>
-      <c r="S108" s="59"/>
-      <c r="T108" s="59"/>
-      <c r="U108" s="59"/>
-      <c r="V108" s="59"/>
-      <c r="W108" s="59"/>
-      <c r="X108" s="59"/>
-      <c r="Y108" s="59"/>
-      <c r="Z108" s="59"/>
-    </row>
-    <row r="109" spans="1:26" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="55"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="57"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="59"/>
-      <c r="I109" s="59"/>
-      <c r="J109" s="59"/>
-      <c r="K109" s="59"/>
-      <c r="L109" s="59"/>
-      <c r="M109" s="59"/>
-      <c r="N109" s="59"/>
-      <c r="O109" s="59"/>
-      <c r="P109" s="59"/>
-      <c r="Q109" s="59"/>
-      <c r="R109" s="59"/>
-      <c r="S109" s="59"/>
-      <c r="T109" s="59"/>
-      <c r="U109" s="59"/>
-      <c r="V109" s="59"/>
-      <c r="W109" s="59"/>
-      <c r="X109" s="59"/>
-      <c r="Y109" s="59"/>
-      <c r="Z109" s="59"/>
-    </row>
-    <row r="110" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E6" s="56"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+    </row>
+    <row r="7" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+    </row>
+    <row r="8" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="74">
+        <v>1</v>
+      </c>
+      <c r="D8" s="74">
+        <v>1</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+    </row>
+    <row r="9" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+    </row>
+    <row r="10" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+    </row>
+    <row r="11" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+    </row>
+    <row r="12" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+    </row>
+    <row r="13" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+    </row>
+    <row r="14" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+    </row>
+    <row r="15" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+    </row>
+    <row r="16" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+    </row>
+    <row r="17" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+    </row>
+    <row r="18" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+    </row>
+    <row r="19" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+    </row>
+    <row r="20" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+    </row>
+    <row r="21" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+    </row>
+    <row r="22" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="62"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+    </row>
+    <row r="23" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+    </row>
+    <row r="24" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+    </row>
+    <row r="25" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+    </row>
+    <row r="26" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+    </row>
+    <row r="27" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+    </row>
+    <row r="28" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+    </row>
+    <row r="29" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+    </row>
+    <row r="30" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+    </row>
+    <row r="31" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+    </row>
+    <row r="32" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+    </row>
+    <row r="33" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+    </row>
+    <row r="34" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+    </row>
+    <row r="35" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+    </row>
+    <row r="36" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
+    </row>
+    <row r="37" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="58"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="58"/>
+      <c r="Z37" s="58"/>
+    </row>
+    <row r="38" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="54"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="58"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="58"/>
+      <c r="Y38" s="58"/>
+      <c r="Z38" s="58"/>
+    </row>
+    <row r="39" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="54"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
+      <c r="Z39" s="58"/>
+    </row>
+    <row r="40" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="54"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="58"/>
+      <c r="Z40" s="58"/>
+    </row>
+    <row r="41" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="54"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="58"/>
+    </row>
+    <row r="42" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="54"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="58"/>
+      <c r="U42" s="58"/>
+      <c r="V42" s="58"/>
+      <c r="W42" s="58"/>
+      <c r="X42" s="58"/>
+      <c r="Y42" s="58"/>
+      <c r="Z42" s="58"/>
+    </row>
+    <row r="43" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="62"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
+    </row>
+    <row r="44" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="54"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="58"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="58"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="58"/>
+    </row>
+    <row r="45" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="54"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="58"/>
+    </row>
+    <row r="46" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="54"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="58"/>
+      <c r="S46" s="58"/>
+      <c r="T46" s="58"/>
+      <c r="U46" s="58"/>
+      <c r="V46" s="58"/>
+      <c r="W46" s="58"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
+      <c r="Z46" s="58"/>
+    </row>
+    <row r="47" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="54"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="58"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="58"/>
+      <c r="U47" s="58"/>
+      <c r="V47" s="58"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="58"/>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="58"/>
+    </row>
+    <row r="48" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="54"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="58"/>
+      <c r="T48" s="58"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="58"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="58"/>
+      <c r="Z48" s="58"/>
+    </row>
+    <row r="49" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="54"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="58"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="58"/>
+      <c r="Z49" s="58"/>
+    </row>
+    <row r="50" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="62"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="58"/>
+      <c r="S50" s="58"/>
+      <c r="T50" s="58"/>
+      <c r="U50" s="58"/>
+      <c r="V50" s="58"/>
+      <c r="W50" s="58"/>
+      <c r="X50" s="58"/>
+      <c r="Y50" s="58"/>
+      <c r="Z50" s="58"/>
+    </row>
+    <row r="51" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="58"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="58"/>
+      <c r="U51" s="58"/>
+      <c r="V51" s="58"/>
+      <c r="W51" s="58"/>
+      <c r="X51" s="58"/>
+      <c r="Y51" s="58"/>
+      <c r="Z51" s="58"/>
+    </row>
+    <row r="52" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="56"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="58"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="58"/>
+      <c r="U52" s="58"/>
+      <c r="V52" s="58"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="58"/>
+      <c r="Y52" s="58"/>
+      <c r="Z52" s="58"/>
+    </row>
+    <row r="53" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="58"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="58"/>
+      <c r="U53" s="58"/>
+      <c r="V53" s="58"/>
+      <c r="W53" s="58"/>
+      <c r="X53" s="58"/>
+      <c r="Y53" s="58"/>
+      <c r="Z53" s="58"/>
+    </row>
+    <row r="54" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="54"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="58"/>
+      <c r="R54" s="58"/>
+      <c r="S54" s="58"/>
+      <c r="T54" s="58"/>
+      <c r="U54" s="58"/>
+      <c r="V54" s="58"/>
+      <c r="W54" s="58"/>
+      <c r="X54" s="58"/>
+      <c r="Y54" s="58"/>
+      <c r="Z54" s="58"/>
+    </row>
+    <row r="55" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="54"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="58"/>
+      <c r="R55" s="58"/>
+      <c r="S55" s="58"/>
+      <c r="T55" s="58"/>
+      <c r="U55" s="58"/>
+      <c r="V55" s="58"/>
+      <c r="W55" s="58"/>
+      <c r="X55" s="58"/>
+      <c r="Y55" s="58"/>
+      <c r="Z55" s="58"/>
+    </row>
+    <row r="56" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="62"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="58"/>
+      <c r="O56" s="58"/>
+      <c r="P56" s="58"/>
+      <c r="Q56" s="58"/>
+      <c r="R56" s="58"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="58"/>
+      <c r="U56" s="58"/>
+      <c r="V56" s="58"/>
+      <c r="W56" s="58"/>
+      <c r="X56" s="58"/>
+      <c r="Y56" s="58"/>
+      <c r="Z56" s="58"/>
+    </row>
+    <row r="57" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="58"/>
+      <c r="P57" s="58"/>
+      <c r="Q57" s="58"/>
+      <c r="R57" s="58"/>
+      <c r="S57" s="58"/>
+      <c r="T57" s="58"/>
+      <c r="U57" s="58"/>
+      <c r="V57" s="58"/>
+      <c r="W57" s="58"/>
+      <c r="X57" s="58"/>
+      <c r="Y57" s="58"/>
+      <c r="Z57" s="58"/>
+    </row>
+    <row r="58" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="58"/>
+      <c r="Q58" s="58"/>
+      <c r="R58" s="58"/>
+      <c r="S58" s="58"/>
+      <c r="T58" s="58"/>
+      <c r="U58" s="58"/>
+      <c r="V58" s="58"/>
+      <c r="W58" s="58"/>
+      <c r="X58" s="58"/>
+      <c r="Y58" s="58"/>
+      <c r="Z58" s="58"/>
+    </row>
+    <row r="59" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="58"/>
+      <c r="S59" s="58"/>
+      <c r="T59" s="58"/>
+      <c r="U59" s="58"/>
+      <c r="V59" s="58"/>
+      <c r="W59" s="58"/>
+      <c r="X59" s="58"/>
+      <c r="Y59" s="58"/>
+      <c r="Z59" s="58"/>
+    </row>
+    <row r="60" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
+      <c r="P60" s="58"/>
+      <c r="Q60" s="58"/>
+      <c r="R60" s="58"/>
+      <c r="S60" s="58"/>
+      <c r="T60" s="58"/>
+      <c r="U60" s="58"/>
+      <c r="V60" s="58"/>
+      <c r="W60" s="58"/>
+      <c r="X60" s="58"/>
+      <c r="Y60" s="58"/>
+      <c r="Z60" s="58"/>
+    </row>
+    <row r="61" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="58"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="58"/>
+      <c r="R61" s="58"/>
+      <c r="S61" s="58"/>
+      <c r="T61" s="58"/>
+      <c r="U61" s="58"/>
+      <c r="V61" s="58"/>
+      <c r="W61" s="58"/>
+      <c r="X61" s="58"/>
+      <c r="Y61" s="58"/>
+      <c r="Z61" s="58"/>
+    </row>
+    <row r="62" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="54"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="58"/>
+      <c r="N62" s="58"/>
+      <c r="O62" s="58"/>
+      <c r="P62" s="58"/>
+      <c r="Q62" s="58"/>
+      <c r="R62" s="58"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="58"/>
+      <c r="U62" s="58"/>
+      <c r="V62" s="58"/>
+      <c r="W62" s="58"/>
+      <c r="X62" s="58"/>
+      <c r="Y62" s="58"/>
+      <c r="Z62" s="58"/>
+    </row>
+    <row r="63" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58"/>
+      <c r="O63" s="58"/>
+      <c r="P63" s="58"/>
+      <c r="Q63" s="58"/>
+      <c r="R63" s="58"/>
+      <c r="S63" s="58"/>
+      <c r="T63" s="58"/>
+      <c r="U63" s="58"/>
+      <c r="V63" s="58"/>
+      <c r="W63" s="58"/>
+      <c r="X63" s="58"/>
+      <c r="Y63" s="58"/>
+      <c r="Z63" s="58"/>
+    </row>
+    <row r="64" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="58"/>
+      <c r="N64" s="58"/>
+      <c r="O64" s="58"/>
+      <c r="P64" s="58"/>
+      <c r="Q64" s="58"/>
+      <c r="R64" s="58"/>
+      <c r="S64" s="58"/>
+      <c r="T64" s="58"/>
+      <c r="U64" s="58"/>
+      <c r="V64" s="58"/>
+      <c r="W64" s="58"/>
+      <c r="X64" s="58"/>
+      <c r="Y64" s="58"/>
+      <c r="Z64" s="58"/>
+    </row>
+    <row r="65" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="54"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
+      <c r="P65" s="58"/>
+      <c r="Q65" s="58"/>
+      <c r="R65" s="58"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="58"/>
+      <c r="U65" s="58"/>
+      <c r="V65" s="58"/>
+      <c r="W65" s="58"/>
+      <c r="X65" s="58"/>
+      <c r="Y65" s="58"/>
+      <c r="Z65" s="58"/>
+    </row>
+    <row r="66" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="58"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="58"/>
+      <c r="P66" s="58"/>
+      <c r="Q66" s="58"/>
+      <c r="R66" s="58"/>
+      <c r="S66" s="58"/>
+      <c r="T66" s="58"/>
+      <c r="U66" s="58"/>
+      <c r="V66" s="58"/>
+      <c r="W66" s="58"/>
+      <c r="X66" s="58"/>
+      <c r="Y66" s="58"/>
+      <c r="Z66" s="58"/>
+    </row>
+    <row r="67" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="58"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="58"/>
+      <c r="Q67" s="58"/>
+      <c r="R67" s="58"/>
+      <c r="S67" s="58"/>
+      <c r="T67" s="58"/>
+      <c r="U67" s="58"/>
+      <c r="V67" s="58"/>
+      <c r="W67" s="58"/>
+      <c r="X67" s="58"/>
+      <c r="Y67" s="58"/>
+      <c r="Z67" s="58"/>
+    </row>
+    <row r="68" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="54"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="58"/>
+      <c r="M68" s="58"/>
+      <c r="N68" s="58"/>
+      <c r="O68" s="58"/>
+      <c r="P68" s="58"/>
+      <c r="Q68" s="58"/>
+      <c r="R68" s="58"/>
+      <c r="S68" s="58"/>
+      <c r="T68" s="58"/>
+      <c r="U68" s="58"/>
+      <c r="V68" s="58"/>
+      <c r="W68" s="58"/>
+      <c r="X68" s="58"/>
+      <c r="Y68" s="58"/>
+      <c r="Z68" s="58"/>
+    </row>
+    <row r="69" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="58"/>
+      <c r="N69" s="58"/>
+      <c r="O69" s="58"/>
+      <c r="P69" s="58"/>
+      <c r="Q69" s="58"/>
+      <c r="R69" s="58"/>
+      <c r="S69" s="58"/>
+      <c r="T69" s="58"/>
+      <c r="U69" s="58"/>
+      <c r="V69" s="58"/>
+      <c r="W69" s="58"/>
+      <c r="X69" s="58"/>
+      <c r="Y69" s="58"/>
+      <c r="Z69" s="58"/>
+    </row>
+    <row r="70" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="58"/>
+      <c r="L70" s="58"/>
+      <c r="M70" s="58"/>
+      <c r="N70" s="58"/>
+      <c r="O70" s="58"/>
+      <c r="P70" s="58"/>
+      <c r="Q70" s="58"/>
+      <c r="R70" s="58"/>
+      <c r="S70" s="58"/>
+      <c r="T70" s="58"/>
+      <c r="U70" s="58"/>
+      <c r="V70" s="58"/>
+      <c r="W70" s="58"/>
+      <c r="X70" s="58"/>
+      <c r="Y70" s="58"/>
+      <c r="Z70" s="58"/>
+    </row>
+    <row r="71" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="54"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="58"/>
+      <c r="N71" s="58"/>
+      <c r="O71" s="58"/>
+      <c r="P71" s="58"/>
+      <c r="Q71" s="58"/>
+      <c r="R71" s="58"/>
+      <c r="S71" s="58"/>
+      <c r="T71" s="58"/>
+      <c r="U71" s="58"/>
+      <c r="V71" s="58"/>
+      <c r="W71" s="58"/>
+      <c r="X71" s="58"/>
+      <c r="Y71" s="58"/>
+      <c r="Z71" s="58"/>
+    </row>
+    <row r="72" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="58"/>
+      <c r="P72" s="58"/>
+      <c r="Q72" s="58"/>
+      <c r="R72" s="58"/>
+      <c r="S72" s="58"/>
+      <c r="T72" s="58"/>
+      <c r="U72" s="58"/>
+      <c r="V72" s="58"/>
+      <c r="W72" s="58"/>
+      <c r="X72" s="58"/>
+      <c r="Y72" s="58"/>
+      <c r="Z72" s="58"/>
+    </row>
+    <row r="73" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="58"/>
+      <c r="M73" s="58"/>
+      <c r="N73" s="58"/>
+      <c r="O73" s="58"/>
+      <c r="P73" s="58"/>
+      <c r="Q73" s="58"/>
+      <c r="R73" s="58"/>
+      <c r="S73" s="58"/>
+      <c r="T73" s="58"/>
+      <c r="U73" s="58"/>
+      <c r="V73" s="58"/>
+      <c r="W73" s="58"/>
+      <c r="X73" s="58"/>
+      <c r="Y73" s="58"/>
+      <c r="Z73" s="58"/>
+    </row>
+    <row r="74" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="62"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="58"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="58"/>
+      <c r="N74" s="58"/>
+      <c r="O74" s="58"/>
+      <c r="P74" s="58"/>
+      <c r="Q74" s="58"/>
+      <c r="R74" s="58"/>
+      <c r="S74" s="58"/>
+      <c r="T74" s="58"/>
+      <c r="U74" s="58"/>
+      <c r="V74" s="58"/>
+      <c r="W74" s="58"/>
+      <c r="X74" s="58"/>
+      <c r="Y74" s="58"/>
+      <c r="Z74" s="58"/>
+    </row>
+    <row r="75" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="58"/>
+      <c r="O75" s="58"/>
+      <c r="P75" s="58"/>
+      <c r="Q75" s="58"/>
+      <c r="R75" s="58"/>
+      <c r="S75" s="58"/>
+      <c r="T75" s="58"/>
+      <c r="U75" s="58"/>
+      <c r="V75" s="58"/>
+      <c r="W75" s="58"/>
+      <c r="X75" s="58"/>
+      <c r="Y75" s="58"/>
+      <c r="Z75" s="58"/>
+    </row>
+    <row r="76" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="58"/>
+      <c r="O76" s="58"/>
+      <c r="P76" s="58"/>
+      <c r="Q76" s="58"/>
+      <c r="R76" s="58"/>
+      <c r="S76" s="58"/>
+      <c r="T76" s="58"/>
+      <c r="U76" s="58"/>
+      <c r="V76" s="58"/>
+      <c r="W76" s="58"/>
+      <c r="X76" s="58"/>
+      <c r="Y76" s="58"/>
+      <c r="Z76" s="58"/>
+    </row>
+    <row r="77" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="58"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="58"/>
+      <c r="N77" s="58"/>
+      <c r="O77" s="58"/>
+      <c r="P77" s="58"/>
+      <c r="Q77" s="58"/>
+      <c r="R77" s="58"/>
+      <c r="S77" s="58"/>
+      <c r="T77" s="58"/>
+      <c r="U77" s="58"/>
+      <c r="V77" s="58"/>
+      <c r="W77" s="58"/>
+      <c r="X77" s="58"/>
+      <c r="Y77" s="58"/>
+      <c r="Z77" s="58"/>
+    </row>
+    <row r="78" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="54"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="58"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="58"/>
+      <c r="M78" s="58"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="58"/>
+      <c r="P78" s="58"/>
+      <c r="Q78" s="58"/>
+      <c r="R78" s="58"/>
+      <c r="S78" s="58"/>
+      <c r="T78" s="58"/>
+      <c r="U78" s="58"/>
+      <c r="V78" s="58"/>
+      <c r="W78" s="58"/>
+      <c r="X78" s="58"/>
+      <c r="Y78" s="58"/>
+      <c r="Z78" s="58"/>
+    </row>
+    <row r="79" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A79" s="54"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="58"/>
+      <c r="O79" s="58"/>
+      <c r="P79" s="58"/>
+      <c r="Q79" s="58"/>
+      <c r="R79" s="58"/>
+      <c r="S79" s="58"/>
+      <c r="T79" s="58"/>
+      <c r="U79" s="58"/>
+      <c r="V79" s="58"/>
+      <c r="W79" s="58"/>
+      <c r="X79" s="58"/>
+      <c r="Y79" s="58"/>
+      <c r="Z79" s="58"/>
+    </row>
+    <row r="80" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="62"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="58"/>
+      <c r="L80" s="58"/>
+      <c r="M80" s="58"/>
+      <c r="N80" s="58"/>
+      <c r="O80" s="58"/>
+      <c r="P80" s="58"/>
+      <c r="Q80" s="58"/>
+      <c r="R80" s="58"/>
+      <c r="S80" s="58"/>
+      <c r="T80" s="58"/>
+      <c r="U80" s="58"/>
+      <c r="V80" s="58"/>
+      <c r="W80" s="58"/>
+      <c r="X80" s="58"/>
+      <c r="Y80" s="58"/>
+      <c r="Z80" s="58"/>
+    </row>
+    <row r="81" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="54"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="58"/>
+      <c r="M81" s="58"/>
+      <c r="N81" s="58"/>
+      <c r="O81" s="58"/>
+      <c r="P81" s="58"/>
+      <c r="Q81" s="58"/>
+      <c r="R81" s="58"/>
+      <c r="S81" s="58"/>
+      <c r="T81" s="58"/>
+      <c r="U81" s="58"/>
+      <c r="V81" s="58"/>
+      <c r="W81" s="58"/>
+      <c r="X81" s="58"/>
+      <c r="Y81" s="58"/>
+      <c r="Z81" s="58"/>
+    </row>
+    <row r="82" spans="1:26" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="54"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="58"/>
+      <c r="O82" s="58"/>
+      <c r="P82" s="58"/>
+      <c r="Q82" s="58"/>
+      <c r="R82" s="58"/>
+      <c r="S82" s="58"/>
+      <c r="T82" s="58"/>
+      <c r="U82" s="58"/>
+      <c r="V82" s="58"/>
+      <c r="W82" s="58"/>
+      <c r="X82" s="58"/>
+      <c r="Y82" s="58"/>
+      <c r="Z82" s="58"/>
+    </row>
+    <row r="83" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="62"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="58"/>
+      <c r="O83" s="58"/>
+      <c r="P83" s="58"/>
+      <c r="Q83" s="58"/>
+      <c r="R83" s="58"/>
+      <c r="S83" s="58"/>
+      <c r="T83" s="58"/>
+      <c r="U83" s="58"/>
+      <c r="V83" s="58"/>
+      <c r="W83" s="58"/>
+      <c r="X83" s="58"/>
+      <c r="Y83" s="58"/>
+      <c r="Z83" s="58"/>
+    </row>
+    <row r="84" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="62"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="58"/>
+      <c r="L84" s="58"/>
+      <c r="M84" s="58"/>
+      <c r="N84" s="58"/>
+      <c r="O84" s="58"/>
+      <c r="P84" s="58"/>
+      <c r="Q84" s="58"/>
+      <c r="R84" s="58"/>
+      <c r="S84" s="58"/>
+      <c r="T84" s="58"/>
+      <c r="U84" s="58"/>
+      <c r="V84" s="58"/>
+      <c r="W84" s="58"/>
+      <c r="X84" s="58"/>
+      <c r="Y84" s="58"/>
+      <c r="Z84" s="58"/>
+    </row>
+    <row r="85" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="62"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="58"/>
+      <c r="J85" s="58"/>
+      <c r="K85" s="58"/>
+      <c r="L85" s="58"/>
+      <c r="M85" s="58"/>
+      <c r="N85" s="58"/>
+      <c r="O85" s="58"/>
+      <c r="P85" s="58"/>
+      <c r="Q85" s="58"/>
+      <c r="R85" s="58"/>
+      <c r="S85" s="58"/>
+      <c r="T85" s="58"/>
+      <c r="U85" s="58"/>
+      <c r="V85" s="58"/>
+      <c r="W85" s="58"/>
+      <c r="X85" s="58"/>
+      <c r="Y85" s="58"/>
+      <c r="Z85" s="58"/>
+    </row>
+    <row r="86" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="62"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="58"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="58"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="58"/>
+      <c r="N86" s="58"/>
+      <c r="O86" s="58"/>
+      <c r="P86" s="58"/>
+      <c r="Q86" s="58"/>
+      <c r="R86" s="58"/>
+      <c r="S86" s="58"/>
+      <c r="T86" s="58"/>
+      <c r="U86" s="58"/>
+      <c r="V86" s="58"/>
+      <c r="W86" s="58"/>
+      <c r="X86" s="58"/>
+      <c r="Y86" s="58"/>
+      <c r="Z86" s="58"/>
+    </row>
+    <row r="87" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="62"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="58"/>
+      <c r="L87" s="58"/>
+      <c r="M87" s="58"/>
+      <c r="N87" s="58"/>
+      <c r="O87" s="58"/>
+      <c r="P87" s="58"/>
+      <c r="Q87" s="58"/>
+      <c r="R87" s="58"/>
+      <c r="S87" s="58"/>
+      <c r="T87" s="58"/>
+      <c r="U87" s="58"/>
+      <c r="V87" s="58"/>
+      <c r="W87" s="58"/>
+      <c r="X87" s="58"/>
+      <c r="Y87" s="58"/>
+      <c r="Z87" s="58"/>
+    </row>
+    <row r="88" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A88" s="62"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="58"/>
+      <c r="O88" s="58"/>
+      <c r="P88" s="58"/>
+      <c r="Q88" s="58"/>
+      <c r="R88" s="58"/>
+      <c r="S88" s="58"/>
+      <c r="T88" s="58"/>
+      <c r="U88" s="58"/>
+      <c r="V88" s="58"/>
+      <c r="W88" s="58"/>
+      <c r="X88" s="58"/>
+      <c r="Y88" s="58"/>
+      <c r="Z88" s="58"/>
+    </row>
+    <row r="89" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="62"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="58"/>
+      <c r="M89" s="58"/>
+      <c r="N89" s="58"/>
+      <c r="O89" s="58"/>
+      <c r="P89" s="58"/>
+      <c r="Q89" s="58"/>
+      <c r="R89" s="58"/>
+      <c r="S89" s="58"/>
+      <c r="T89" s="58"/>
+      <c r="U89" s="58"/>
+      <c r="V89" s="58"/>
+      <c r="W89" s="58"/>
+      <c r="X89" s="58"/>
+      <c r="Y89" s="58"/>
+      <c r="Z89" s="58"/>
+    </row>
+    <row r="90" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="54"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="58"/>
+      <c r="J90" s="58"/>
+      <c r="K90" s="58"/>
+      <c r="L90" s="58"/>
+      <c r="M90" s="58"/>
+      <c r="N90" s="58"/>
+      <c r="O90" s="58"/>
+      <c r="P90" s="58"/>
+      <c r="Q90" s="58"/>
+      <c r="R90" s="58"/>
+      <c r="S90" s="58"/>
+      <c r="T90" s="58"/>
+      <c r="U90" s="58"/>
+      <c r="V90" s="58"/>
+      <c r="W90" s="58"/>
+      <c r="X90" s="58"/>
+      <c r="Y90" s="58"/>
+      <c r="Z90" s="58"/>
+    </row>
+    <row r="91" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="54"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="58"/>
+      <c r="M91" s="58"/>
+      <c r="N91" s="58"/>
+      <c r="O91" s="58"/>
+      <c r="P91" s="58"/>
+      <c r="Q91" s="58"/>
+      <c r="R91" s="58"/>
+      <c r="S91" s="58"/>
+      <c r="T91" s="58"/>
+      <c r="U91" s="58"/>
+      <c r="V91" s="58"/>
+      <c r="W91" s="58"/>
+      <c r="X91" s="58"/>
+      <c r="Y91" s="58"/>
+      <c r="Z91" s="58"/>
+    </row>
+    <row r="92" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A92" s="54"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="58"/>
+      <c r="N92" s="58"/>
+      <c r="O92" s="58"/>
+      <c r="P92" s="58"/>
+      <c r="Q92" s="58"/>
+      <c r="R92" s="58"/>
+      <c r="S92" s="58"/>
+      <c r="T92" s="58"/>
+      <c r="U92" s="58"/>
+      <c r="V92" s="58"/>
+      <c r="W92" s="58"/>
+      <c r="X92" s="58"/>
+      <c r="Y92" s="58"/>
+      <c r="Z92" s="58"/>
+    </row>
+    <row r="93" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="54"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="58"/>
+      <c r="O93" s="58"/>
+      <c r="P93" s="58"/>
+      <c r="Q93" s="58"/>
+      <c r="R93" s="58"/>
+      <c r="S93" s="58"/>
+      <c r="T93" s="58"/>
+      <c r="U93" s="58"/>
+      <c r="V93" s="58"/>
+      <c r="W93" s="58"/>
+      <c r="X93" s="58"/>
+      <c r="Y93" s="58"/>
+      <c r="Z93" s="58"/>
+    </row>
+    <row r="94" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A94" s="54"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="58"/>
+      <c r="O94" s="58"/>
+      <c r="P94" s="58"/>
+      <c r="Q94" s="58"/>
+      <c r="R94" s="58"/>
+      <c r="S94" s="58"/>
+      <c r="T94" s="58"/>
+      <c r="U94" s="58"/>
+      <c r="V94" s="58"/>
+      <c r="W94" s="58"/>
+      <c r="X94" s="58"/>
+      <c r="Y94" s="58"/>
+      <c r="Z94" s="58"/>
+    </row>
+    <row r="95" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="62"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="58"/>
+      <c r="J95" s="58"/>
+      <c r="K95" s="58"/>
+      <c r="L95" s="58"/>
+      <c r="M95" s="58"/>
+      <c r="N95" s="58"/>
+      <c r="O95" s="58"/>
+      <c r="P95" s="58"/>
+      <c r="Q95" s="58"/>
+      <c r="R95" s="58"/>
+      <c r="S95" s="58"/>
+      <c r="T95" s="58"/>
+      <c r="U95" s="58"/>
+      <c r="V95" s="58"/>
+      <c r="W95" s="58"/>
+      <c r="X95" s="58"/>
+      <c r="Y95" s="58"/>
+      <c r="Z95" s="58"/>
+    </row>
+    <row r="96" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A96" s="62"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="58"/>
+      <c r="J96" s="58"/>
+      <c r="K96" s="58"/>
+      <c r="L96" s="58"/>
+      <c r="M96" s="58"/>
+      <c r="N96" s="58"/>
+      <c r="O96" s="58"/>
+      <c r="P96" s="58"/>
+      <c r="Q96" s="58"/>
+      <c r="R96" s="58"/>
+      <c r="S96" s="58"/>
+      <c r="T96" s="58"/>
+      <c r="U96" s="58"/>
+      <c r="V96" s="58"/>
+      <c r="W96" s="58"/>
+      <c r="X96" s="58"/>
+      <c r="Y96" s="58"/>
+      <c r="Z96" s="58"/>
+    </row>
+    <row r="97" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A97" s="62"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="58"/>
+      <c r="J97" s="58"/>
+      <c r="K97" s="58"/>
+      <c r="L97" s="58"/>
+      <c r="M97" s="58"/>
+      <c r="N97" s="58"/>
+      <c r="O97" s="58"/>
+      <c r="P97" s="58"/>
+      <c r="Q97" s="58"/>
+      <c r="R97" s="58"/>
+      <c r="S97" s="58"/>
+      <c r="T97" s="58"/>
+      <c r="U97" s="58"/>
+      <c r="V97" s="58"/>
+      <c r="W97" s="58"/>
+      <c r="X97" s="58"/>
+      <c r="Y97" s="58"/>
+      <c r="Z97" s="58"/>
+    </row>
+    <row r="98" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A98" s="62"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="58"/>
+      <c r="J98" s="58"/>
+      <c r="K98" s="58"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="58"/>
+      <c r="N98" s="58"/>
+      <c r="O98" s="58"/>
+      <c r="P98" s="58"/>
+      <c r="Q98" s="58"/>
+      <c r="R98" s="58"/>
+      <c r="S98" s="58"/>
+      <c r="T98" s="58"/>
+      <c r="U98" s="58"/>
+      <c r="V98" s="58"/>
+      <c r="W98" s="58"/>
+      <c r="X98" s="58"/>
+      <c r="Y98" s="58"/>
+      <c r="Z98" s="58"/>
+    </row>
+    <row r="99" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A99" s="62"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="58"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="58"/>
+      <c r="O99" s="58"/>
+      <c r="P99" s="58"/>
+      <c r="Q99" s="58"/>
+      <c r="R99" s="58"/>
+      <c r="S99" s="58"/>
+      <c r="T99" s="58"/>
+      <c r="U99" s="58"/>
+      <c r="V99" s="58"/>
+      <c r="W99" s="58"/>
+      <c r="X99" s="58"/>
+      <c r="Y99" s="58"/>
+      <c r="Z99" s="58"/>
+    </row>
+    <row r="100" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A100" s="54"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="58"/>
+      <c r="O100" s="58"/>
+      <c r="P100" s="58"/>
+      <c r="Q100" s="58"/>
+      <c r="R100" s="58"/>
+      <c r="S100" s="58"/>
+      <c r="T100" s="58"/>
+      <c r="U100" s="58"/>
+      <c r="V100" s="58"/>
+      <c r="W100" s="58"/>
+      <c r="X100" s="58"/>
+      <c r="Y100" s="58"/>
+      <c r="Z100" s="58"/>
+    </row>
+    <row r="101" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A101" s="54"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
+      <c r="J101" s="58"/>
+      <c r="K101" s="58"/>
+      <c r="L101" s="58"/>
+      <c r="M101" s="58"/>
+      <c r="N101" s="58"/>
+      <c r="O101" s="58"/>
+      <c r="P101" s="58"/>
+      <c r="Q101" s="58"/>
+      <c r="R101" s="58"/>
+      <c r="S101" s="58"/>
+      <c r="T101" s="58"/>
+      <c r="U101" s="58"/>
+      <c r="V101" s="58"/>
+      <c r="W101" s="58"/>
+      <c r="X101" s="58"/>
+      <c r="Y101" s="58"/>
+      <c r="Z101" s="58"/>
+    </row>
+    <row r="102" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A102" s="54"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="58"/>
+      <c r="N102" s="58"/>
+      <c r="O102" s="58"/>
+      <c r="P102" s="58"/>
+      <c r="Q102" s="58"/>
+      <c r="R102" s="58"/>
+      <c r="S102" s="58"/>
+      <c r="T102" s="58"/>
+      <c r="U102" s="58"/>
+      <c r="V102" s="58"/>
+      <c r="W102" s="58"/>
+      <c r="X102" s="58"/>
+      <c r="Y102" s="58"/>
+      <c r="Z102" s="58"/>
+    </row>
+    <row r="103" spans="1:26" s="41" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A103" s="62"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="55"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="58"/>
+      <c r="O103" s="58"/>
+      <c r="P103" s="58"/>
+      <c r="Q103" s="58"/>
+      <c r="R103" s="58"/>
+      <c r="S103" s="58"/>
+      <c r="T103" s="58"/>
+      <c r="U103" s="58"/>
+      <c r="V103" s="58"/>
+      <c r="W103" s="58"/>
+      <c r="X103" s="58"/>
+      <c r="Y103" s="58"/>
+      <c r="Z103" s="58"/>
+    </row>
+    <row r="104" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A104" s="56"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="55"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="58"/>
+      <c r="N104" s="58"/>
+      <c r="O104" s="58"/>
+      <c r="P104" s="58"/>
+      <c r="Q104" s="58"/>
+      <c r="R104" s="58"/>
+      <c r="S104" s="58"/>
+      <c r="T104" s="58"/>
+      <c r="U104" s="58"/>
+      <c r="V104" s="58"/>
+      <c r="W104" s="58"/>
+      <c r="X104" s="58"/>
+      <c r="Y104" s="58"/>
+      <c r="Z104" s="58"/>
+    </row>
+    <row r="105" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A105" s="54"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="55"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="58"/>
+      <c r="J105" s="58"/>
+      <c r="K105" s="58"/>
+      <c r="L105" s="58"/>
+      <c r="M105" s="58"/>
+      <c r="N105" s="58"/>
+      <c r="O105" s="58"/>
+      <c r="P105" s="58"/>
+      <c r="Q105" s="58"/>
+      <c r="R105" s="58"/>
+      <c r="S105" s="58"/>
+      <c r="T105" s="58"/>
+      <c r="U105" s="58"/>
+      <c r="V105" s="58"/>
+      <c r="W105" s="58"/>
+      <c r="X105" s="58"/>
+      <c r="Y105" s="58"/>
+      <c r="Z105" s="58"/>
+    </row>
+    <row r="106" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A106" s="54"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="58"/>
+      <c r="J106" s="58"/>
+      <c r="K106" s="58"/>
+      <c r="L106" s="58"/>
+      <c r="M106" s="58"/>
+      <c r="N106" s="58"/>
+      <c r="O106" s="58"/>
+      <c r="P106" s="58"/>
+      <c r="Q106" s="58"/>
+      <c r="R106" s="58"/>
+      <c r="S106" s="58"/>
+      <c r="T106" s="58"/>
+      <c r="U106" s="58"/>
+      <c r="V106" s="58"/>
+      <c r="W106" s="58"/>
+      <c r="X106" s="58"/>
+      <c r="Y106" s="58"/>
+      <c r="Z106" s="58"/>
+    </row>
+    <row r="107" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A107" s="54"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="55"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="58"/>
+      <c r="L107" s="58"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="58"/>
+      <c r="O107" s="58"/>
+      <c r="P107" s="58"/>
+      <c r="Q107" s="58"/>
+      <c r="R107" s="58"/>
+      <c r="S107" s="58"/>
+      <c r="T107" s="58"/>
+      <c r="U107" s="58"/>
+      <c r="V107" s="58"/>
+      <c r="W107" s="58"/>
+      <c r="X107" s="58"/>
+      <c r="Y107" s="58"/>
+      <c r="Z107" s="58"/>
+    </row>
+    <row r="108" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A108" s="54"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58"/>
+      <c r="J108" s="58"/>
+      <c r="K108" s="58"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="58"/>
+      <c r="N108" s="58"/>
+      <c r="O108" s="58"/>
+      <c r="P108" s="58"/>
+      <c r="Q108" s="58"/>
+      <c r="R108" s="58"/>
+      <c r="S108" s="58"/>
+      <c r="T108" s="58"/>
+      <c r="U108" s="58"/>
+      <c r="V108" s="58"/>
+      <c r="W108" s="58"/>
+      <c r="X108" s="58"/>
+      <c r="Y108" s="58"/>
+      <c r="Z108" s="58"/>
+    </row>
+    <row r="109" spans="1:26" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="54"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="58"/>
+      <c r="J109" s="58"/>
+      <c r="K109" s="58"/>
+      <c r="L109" s="58"/>
+      <c r="M109" s="58"/>
+      <c r="N109" s="58"/>
+      <c r="O109" s="58"/>
+      <c r="P109" s="58"/>
+      <c r="Q109" s="58"/>
+      <c r="R109" s="58"/>
+      <c r="S109" s="58"/>
+      <c r="T109" s="58"/>
+      <c r="U109" s="58"/>
+      <c r="V109" s="58"/>
+      <c r="W109" s="58"/>
+      <c r="X109" s="58"/>
+      <c r="Y109" s="58"/>
+      <c r="Z109" s="58"/>
+    </row>
+    <row r="110" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
@@ -3992,7 +4103,7 @@
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
     </row>
-    <row r="111" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
@@ -4020,7 +4131,7 @@
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
     </row>
-    <row r="112" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
@@ -4048,7 +4159,7 @@
       <c r="Y112" s="8"/>
       <c r="Z112" s="8"/>
     </row>
-    <row r="113" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
@@ -4076,7 +4187,7 @@
       <c r="Y113" s="8"/>
       <c r="Z113" s="8"/>
     </row>
-    <row r="114" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
@@ -4104,7 +4215,7 @@
       <c r="Y114" s="8"/>
       <c r="Z114" s="8"/>
     </row>
-    <row r="115" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
@@ -4132,7 +4243,7 @@
       <c r="Y115" s="8"/>
       <c r="Z115" s="8"/>
     </row>
-    <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
@@ -4160,7 +4271,7 @@
       <c r="Y116" s="8"/>
       <c r="Z116" s="8"/>
     </row>
-    <row r="117" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
@@ -4188,7 +4299,7 @@
       <c r="Y117" s="8"/>
       <c r="Z117" s="8"/>
     </row>
-    <row r="118" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
@@ -4216,7 +4327,7 @@
       <c r="Y118" s="8"/>
       <c r="Z118" s="8"/>
     </row>
-    <row r="119" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
@@ -4244,7 +4355,7 @@
       <c r="Y119" s="8"/>
       <c r="Z119" s="8"/>
     </row>
-    <row r="120" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
@@ -4272,7 +4383,7 @@
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
     </row>
-    <row r="121" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
@@ -4300,7 +4411,7 @@
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
     </row>
-    <row r="122" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
@@ -4328,7 +4439,7 @@
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
     </row>
-    <row r="123" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
@@ -4356,7 +4467,7 @@
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
     </row>
-    <row r="124" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
@@ -4384,7 +4495,7 @@
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
     </row>
-    <row r="125" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
@@ -4412,7 +4523,7 @@
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
     </row>
-    <row r="126" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
@@ -4440,7 +4551,7 @@
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
     </row>
-    <row r="127" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
@@ -4468,7 +4579,7 @@
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
     </row>
-    <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
@@ -4496,7 +4607,7 @@
       <c r="Y128" s="8"/>
       <c r="Z128" s="8"/>
     </row>
-    <row r="129" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
@@ -4524,7 +4635,7 @@
       <c r="Y129" s="8"/>
       <c r="Z129" s="8"/>
     </row>
-    <row r="130" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
@@ -4552,7 +4663,7 @@
       <c r="Y130" s="8"/>
       <c r="Z130" s="8"/>
     </row>
-    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="14"/>
@@ -4580,7 +4691,7 @@
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
     </row>
-    <row r="132" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
@@ -4608,7 +4719,7 @@
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
     </row>
-    <row r="133" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="6"/>
       <c r="C133" s="3"/>
@@ -4636,7 +4747,7 @@
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
     </row>
-    <row r="134" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="14"/>
@@ -4664,7 +4775,7 @@
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
     </row>
-    <row r="135" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
@@ -4692,7 +4803,7 @@
       <c r="Y135" s="8"/>
       <c r="Z135" s="8"/>
     </row>
-    <row r="136" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
@@ -4720,7 +4831,7 @@
       <c r="Y136" s="8"/>
       <c r="Z136" s="8"/>
     </row>
-    <row r="137" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="5"/>
       <c r="C137" s="14"/>
@@ -4748,7 +4859,7 @@
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
     </row>
-    <row r="138" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="9"/>
       <c r="C138" s="3"/>
@@ -4776,7 +4887,7 @@
       <c r="Y138" s="8"/>
       <c r="Z138" s="8"/>
     </row>
-    <row r="139" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="9"/>
       <c r="C139" s="3"/>
@@ -4804,7 +4915,7 @@
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
     </row>
-    <row r="140" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="14"/>
@@ -4832,7 +4943,7 @@
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
     </row>
-    <row r="141" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
@@ -4860,7 +4971,7 @@
       <c r="Y141" s="8"/>
       <c r="Z141" s="8"/>
     </row>
-    <row r="142" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
@@ -4888,7 +4999,7 @@
       <c r="Y142" s="8"/>
       <c r="Z142" s="8"/>
     </row>
-    <row r="143" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="20"/>
       <c r="C143" s="21"/>
@@ -4916,7 +5027,7 @@
       <c r="Y143" s="8"/>
       <c r="Z143" s="8"/>
     </row>
-    <row r="144" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="23"/>
       <c r="C144" s="3"/>
@@ -4944,7 +5055,7 @@
       <c r="Y144" s="8"/>
       <c r="Z144" s="8"/>
     </row>
-    <row r="145" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="23"/>
       <c r="C145" s="3"/>
@@ -4972,7 +5083,7 @@
       <c r="Y145" s="8"/>
       <c r="Z145" s="8"/>
     </row>
-    <row r="146" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="20"/>
       <c r="C146" s="21"/>
@@ -5000,7 +5111,7 @@
       <c r="Y146" s="8"/>
       <c r="Z146" s="8"/>
     </row>
-    <row r="147" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="23"/>
       <c r="C147" s="3"/>
@@ -5028,7 +5139,7 @@
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
     </row>
-    <row r="148" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="23"/>
       <c r="C148" s="3"/>
@@ -5056,7 +5167,7 @@
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
     </row>
-    <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="20"/>
       <c r="C149" s="21"/>
@@ -5084,7 +5195,7 @@
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
     </row>
-    <row r="150" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
@@ -5112,7 +5223,7 @@
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
     </row>
-    <row r="151" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
@@ -5140,7 +5251,7 @@
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
     </row>
-    <row r="152" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="20"/>
       <c r="C152" s="21"/>
@@ -5168,7 +5279,7 @@
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
     </row>
-    <row r="153" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="6"/>
       <c r="C153" s="3"/>
@@ -5196,7 +5307,7 @@
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
     </row>
-    <row r="154" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="6"/>
       <c r="C154" s="3"/>
@@ -5224,7 +5335,7 @@
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
     </row>
-    <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="20"/>
       <c r="C155" s="21"/>
@@ -5252,7 +5363,7 @@
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
     </row>
-    <row r="156" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="3"/>
@@ -5280,7 +5391,7 @@
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
     </row>
-    <row r="157" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
@@ -5308,7 +5419,7 @@
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
     </row>
-    <row r="158" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="15"/>
@@ -5336,7 +5447,7 @@
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
     </row>
-    <row r="159" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="8"/>
       <c r="C159" s="15"/>
@@ -5364,7 +5475,7 @@
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
     </row>
-    <row r="160" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="15"/>
@@ -5392,7 +5503,7 @@
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
     </row>
-    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="15"/>
@@ -5420,7 +5531,7 @@
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
     </row>
-    <row r="162" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="2"/>
       <c r="C162" s="3"/>
@@ -5448,7 +5559,7 @@
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
     </row>
-    <row r="163" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="2"/>
       <c r="C163" s="3"/>
@@ -5476,7 +5587,7 @@
       <c r="Y163" s="8"/>
       <c r="Z163" s="8"/>
     </row>
-    <row r="164" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="2"/>
       <c r="C164" s="3"/>
@@ -5504,7 +5615,7 @@
       <c r="Y164" s="8"/>
       <c r="Z164" s="8"/>
     </row>
-    <row r="165" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="2"/>
       <c r="C165" s="3"/>
@@ -5532,7 +5643,7 @@
       <c r="Y165" s="8"/>
       <c r="Z165" s="8"/>
     </row>
-    <row r="166" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="15"/>
@@ -5560,7 +5671,7 @@
       <c r="Y166" s="8"/>
       <c r="Z166" s="8"/>
     </row>
-    <row r="167" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
@@ -5588,7 +5699,7 @@
       <c r="Y167" s="8"/>
       <c r="Z167" s="8"/>
     </row>
-    <row r="168" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
@@ -5616,7 +5727,7 @@
       <c r="Y168" s="8"/>
       <c r="Z168" s="8"/>
     </row>
-    <row r="169" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
@@ -5644,7 +5755,7 @@
       <c r="Y169" s="8"/>
       <c r="Z169" s="8"/>
     </row>
-    <row r="170" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
@@ -5672,7 +5783,7 @@
       <c r="Y170" s="8"/>
       <c r="Z170" s="8"/>
     </row>
-    <row r="171" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
@@ -5700,7 +5811,7 @@
       <c r="Y171" s="8"/>
       <c r="Z171" s="8"/>
     </row>
-    <row r="172" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
@@ -5728,7 +5839,7 @@
       <c r="Y172" s="8"/>
       <c r="Z172" s="8"/>
     </row>
-    <row r="173" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
@@ -5756,7 +5867,7 @@
       <c r="Y173" s="8"/>
       <c r="Z173" s="8"/>
     </row>
-    <row r="174" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="10"/>
@@ -5784,7 +5895,7 @@
       <c r="Y174" s="8"/>
       <c r="Z174" s="8"/>
     </row>
-    <row r="175" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="10"/>
@@ -5812,7 +5923,7 @@
       <c r="Y175" s="8"/>
       <c r="Z175" s="8"/>
     </row>
-    <row r="176" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="10"/>
@@ -5840,7 +5951,7 @@
       <c r="Y176" s="8"/>
       <c r="Z176" s="8"/>
     </row>
-    <row r="177" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="10"/>
@@ -5868,7 +5979,7 @@
       <c r="Y177" s="8"/>
       <c r="Z177" s="8"/>
     </row>
-    <row r="178" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="10"/>
@@ -5896,7 +6007,7 @@
       <c r="Y178" s="8"/>
       <c r="Z178" s="8"/>
     </row>
-    <row r="179" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="10"/>
@@ -5924,7 +6035,7 @@
       <c r="Y179" s="8"/>
       <c r="Z179" s="8"/>
     </row>
-    <row r="180" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="15"/>
@@ -5952,7 +6063,7 @@
       <c r="Y180" s="8"/>
       <c r="Z180" s="8"/>
     </row>
-    <row r="181" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="2"/>
       <c r="C181" s="24"/>
@@ -5980,7 +6091,7 @@
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
     </row>
-    <row r="182" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="2"/>
       <c r="C182" s="24"/>
@@ -6008,7 +6119,7 @@
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
     </row>
-    <row r="183" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="2"/>
       <c r="C183" s="24"/>
@@ -6036,7 +6147,7 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="2"/>
       <c r="C184" s="24"/>
@@ -6064,7 +6175,7 @@
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
     </row>
-    <row r="185" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="2"/>
       <c r="C185" s="24"/>
@@ -6092,7 +6203,7 @@
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
     </row>
-    <row r="186" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="2"/>
       <c r="C186" s="24"/>
@@ -6120,7 +6231,7 @@
       <c r="Y186" s="5"/>
       <c r="Z186" s="5"/>
     </row>
-    <row r="187" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="2"/>
       <c r="C187" s="24"/>
@@ -6148,7 +6259,7 @@
       <c r="Y187" s="5"/>
       <c r="Z187" s="5"/>
     </row>
-    <row r="188" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="2"/>
       <c r="C188" s="24"/>
@@ -6176,7 +6287,7 @@
       <c r="Y188" s="5"/>
       <c r="Z188" s="5"/>
     </row>
-    <row r="189" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="15"/>
@@ -6204,7 +6315,7 @@
       <c r="Y189" s="8"/>
       <c r="Z189" s="8"/>
     </row>
-    <row r="190" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="25"/>
       <c r="C190" s="26"/>
@@ -6232,7 +6343,7 @@
       <c r="Y190" s="8"/>
       <c r="Z190" s="8"/>
     </row>
-    <row r="191" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="25"/>
       <c r="C191" s="26"/>
@@ -6260,7 +6371,7 @@
       <c r="Y191" s="8"/>
       <c r="Z191" s="8"/>
     </row>
-    <row r="192" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="25"/>
       <c r="C192" s="26"/>
@@ -6288,7 +6399,7 @@
       <c r="Y192" s="8"/>
       <c r="Z192" s="8"/>
     </row>
-    <row r="193" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="25"/>
       <c r="C193" s="26"/>
@@ -6316,7 +6427,7 @@
       <c r="Y193" s="8"/>
       <c r="Z193" s="8"/>
     </row>
-    <row r="194" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="25"/>
       <c r="C194" s="26"/>
@@ -6344,7 +6455,7 @@
       <c r="Y194" s="8"/>
       <c r="Z194" s="8"/>
     </row>
-    <row r="195" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="25"/>
       <c r="C195" s="26"/>
@@ -6372,7 +6483,7 @@
       <c r="Y195" s="8"/>
       <c r="Z195" s="8"/>
     </row>
-    <row r="196" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="29"/>
       <c r="B196" s="30"/>
       <c r="C196" s="31"/>
@@ -6400,7 +6511,7 @@
       <c r="Y196" s="8"/>
       <c r="Z196" s="8"/>
     </row>
-    <row r="197" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="29"/>
       <c r="B197" s="34"/>
       <c r="C197" s="31"/>
@@ -6428,7 +6539,7 @@
       <c r="Y197" s="8"/>
       <c r="Z197" s="8"/>
     </row>
-    <row r="198" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="15"/>
@@ -6456,7 +6567,7 @@
       <c r="Y198" s="8"/>
       <c r="Z198" s="8"/>
     </row>
-    <row r="199" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="29"/>
       <c r="B199" s="29"/>
       <c r="C199" s="31"/>
@@ -6484,7 +6595,7 @@
       <c r="Y199" s="8"/>
       <c r="Z199" s="8"/>
     </row>
-    <row r="200" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="29"/>
       <c r="B200" s="29"/>
       <c r="C200" s="31"/>
@@ -6512,7 +6623,7 @@
       <c r="Y200" s="8"/>
       <c r="Z200" s="8"/>
     </row>
-    <row r="201" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="29"/>
       <c r="B201" s="29"/>
       <c r="C201" s="31"/>
@@ -6540,7 +6651,7 @@
       <c r="Y201" s="8"/>
       <c r="Z201" s="8"/>
     </row>
-    <row r="202" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="29"/>
       <c r="B202" s="29"/>
       <c r="C202" s="31"/>
@@ -6568,7 +6679,7 @@
       <c r="Y202" s="8"/>
       <c r="Z202" s="8"/>
     </row>
-    <row r="203" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="29"/>
       <c r="B203" s="29"/>
       <c r="C203" s="31"/>
@@ -6596,7 +6707,7 @@
       <c r="Y203" s="8"/>
       <c r="Z203" s="8"/>
     </row>
-    <row r="204" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="29"/>
       <c r="B204" s="29"/>
       <c r="C204" s="31"/>
@@ -6624,7 +6735,7 @@
       <c r="Y204" s="8"/>
       <c r="Z204" s="8"/>
     </row>
-    <row r="205" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="29"/>
       <c r="B205" s="29"/>
       <c r="C205" s="31"/>
@@ -6652,7 +6763,7 @@
       <c r="Y205" s="8"/>
       <c r="Z205" s="8"/>
     </row>
-    <row r="206" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
       <c r="C206" s="24"/>
@@ -6680,7 +6791,7 @@
       <c r="Y206" s="8"/>
       <c r="Z206" s="8"/>
     </row>
-    <row r="207" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="15"/>
@@ -6708,7 +6819,7 @@
       <c r="Y207" s="8"/>
       <c r="Z207" s="8"/>
     </row>
-    <row r="208" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="25"/>
       <c r="C208" s="26"/>
@@ -6736,7 +6847,7 @@
       <c r="Y208" s="8"/>
       <c r="Z208" s="8"/>
     </row>
-    <row r="209" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="29"/>
       <c r="B209" s="34"/>
       <c r="C209" s="31"/>
@@ -6764,7 +6875,7 @@
       <c r="Y209" s="8"/>
       <c r="Z209" s="8"/>
     </row>
-    <row r="210" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="29"/>
       <c r="B210" s="34"/>
       <c r="C210" s="31"/>
@@ -6792,7 +6903,7 @@
       <c r="Y210" s="8"/>
       <c r="Z210" s="8"/>
     </row>
-    <row r="211" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="29"/>
       <c r="B211" s="34"/>
       <c r="C211" s="31"/>
@@ -6820,7 +6931,7 @@
       <c r="Y211" s="8"/>
       <c r="Z211" s="8"/>
     </row>
-    <row r="212" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="29"/>
       <c r="B212" s="34"/>
       <c r="C212" s="31"/>
@@ -6848,7 +6959,7 @@
       <c r="Y212" s="8"/>
       <c r="Z212" s="8"/>
     </row>
-    <row r="213" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="29"/>
       <c r="B213" s="34"/>
       <c r="C213" s="31"/>
@@ -6876,7 +6987,7 @@
       <c r="Y213" s="8"/>
       <c r="Z213" s="8"/>
     </row>
-    <row r="214" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="29"/>
       <c r="B214" s="34"/>
       <c r="C214" s="31"/>
@@ -6904,7 +7015,7 @@
       <c r="Y214" s="8"/>
       <c r="Z214" s="8"/>
     </row>
-    <row r="215" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="29"/>
       <c r="B215" s="34"/>
       <c r="C215" s="31"/>
@@ -6932,7 +7043,7 @@
       <c r="Y215" s="8"/>
       <c r="Z215" s="8"/>
     </row>
-    <row r="216" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="15"/>
@@ -6960,7 +7071,7 @@
       <c r="Y216" s="8"/>
       <c r="Z216" s="8"/>
     </row>
-    <row r="217" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="25"/>
       <c r="C217" s="26"/>
@@ -6988,7 +7099,7 @@
       <c r="Y217" s="8"/>
       <c r="Z217" s="8"/>
     </row>
-    <row r="218" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="29"/>
       <c r="B218" s="34"/>
       <c r="C218" s="31"/>
@@ -7016,7 +7127,7 @@
       <c r="Y218" s="8"/>
       <c r="Z218" s="8"/>
     </row>
-    <row r="219" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="29"/>
       <c r="B219" s="34"/>
       <c r="C219" s="31"/>
@@ -7044,7 +7155,7 @@
       <c r="Y219" s="8"/>
       <c r="Z219" s="8"/>
     </row>
-    <row r="220" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="29"/>
       <c r="B220" s="34"/>
       <c r="C220" s="31"/>
@@ -7072,7 +7183,7 @@
       <c r="Y220" s="8"/>
       <c r="Z220" s="8"/>
     </row>
-    <row r="221" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="29"/>
       <c r="B221" s="34"/>
       <c r="C221" s="31"/>
@@ -7100,7 +7211,7 @@
       <c r="Y221" s="8"/>
       <c r="Z221" s="8"/>
     </row>
-    <row r="222" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="29"/>
       <c r="B222" s="34"/>
       <c r="C222" s="31"/>
@@ -7128,7 +7239,7 @@
       <c r="Y222" s="8"/>
       <c r="Z222" s="8"/>
     </row>
-    <row r="223" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="29"/>
       <c r="B223" s="34"/>
       <c r="C223" s="31"/>
@@ -7156,7 +7267,7 @@
       <c r="Y223" s="8"/>
       <c r="Z223" s="8"/>
     </row>
-    <row r="224" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="29"/>
       <c r="B224" s="34"/>
       <c r="C224" s="31"/>
@@ -7184,7 +7295,7 @@
       <c r="Y224" s="8"/>
       <c r="Z224" s="8"/>
     </row>
-    <row r="225" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="15"/>
@@ -7212,7 +7323,7 @@
       <c r="Y225" s="8"/>
       <c r="Z225" s="8"/>
     </row>
-    <row r="226" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="29"/>
       <c r="B226" s="34"/>
       <c r="C226" s="31"/>
@@ -7240,7 +7351,7 @@
       <c r="Y226" s="8"/>
       <c r="Z226" s="8"/>
     </row>
-    <row r="227" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="29"/>
       <c r="B227" s="34"/>
       <c r="C227" s="31"/>
@@ -7268,7 +7379,7 @@
       <c r="Y227" s="8"/>
       <c r="Z227" s="8"/>
     </row>
-    <row r="228" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="29"/>
       <c r="B228" s="34"/>
       <c r="C228" s="31"/>
@@ -7296,7 +7407,7 @@
       <c r="Y228" s="8"/>
       <c r="Z228" s="8"/>
     </row>
-    <row r="229" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="29"/>
       <c r="B229" s="34"/>
       <c r="C229" s="31"/>
@@ -7324,7 +7435,7 @@
       <c r="Y229" s="8"/>
       <c r="Z229" s="8"/>
     </row>
-    <row r="230" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="29"/>
       <c r="B230" s="34"/>
       <c r="C230" s="31"/>
@@ -7352,7 +7463,7 @@
       <c r="Y230" s="8"/>
       <c r="Z230" s="8"/>
     </row>
-    <row r="231" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="29"/>
       <c r="B231" s="34"/>
       <c r="C231" s="31"/>
@@ -7380,7 +7491,7 @@
       <c r="Y231" s="8"/>
       <c r="Z231" s="8"/>
     </row>
-    <row r="232" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="29"/>
       <c r="B232" s="34"/>
       <c r="C232" s="31"/>
@@ -7408,7 +7519,7 @@
       <c r="Y232" s="8"/>
       <c r="Z232" s="8"/>
     </row>
-    <row r="233" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="29"/>
       <c r="B233" s="34"/>
       <c r="C233" s="31"/>
@@ -7436,7 +7547,7 @@
       <c r="Y233" s="8"/>
       <c r="Z233" s="8"/>
     </row>
-    <row r="234" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="15"/>
@@ -7464,7 +7575,7 @@
       <c r="Y234" s="8"/>
       <c r="Z234" s="8"/>
     </row>
-    <row r="235" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="2"/>
       <c r="C235" s="24"/>
@@ -7492,7 +7603,7 @@
       <c r="Y235" s="5"/>
       <c r="Z235" s="5"/>
     </row>
-    <row r="236" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="2"/>
       <c r="C236" s="24"/>
@@ -7520,7 +7631,7 @@
       <c r="Y236" s="5"/>
       <c r="Z236" s="5"/>
     </row>
-    <row r="237" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
       <c r="B237" s="2"/>
       <c r="C237" s="24"/>
@@ -7548,7 +7659,7 @@
       <c r="Y237" s="5"/>
       <c r="Z237" s="5"/>
     </row>
-    <row r="238" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="15"/>
@@ -7576,7 +7687,7 @@
       <c r="Y238" s="8"/>
       <c r="Z238" s="8"/>
     </row>
-    <row r="239" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="9"/>
       <c r="C239" s="37"/>
@@ -7604,7 +7715,7 @@
       <c r="Y239" s="5"/>
       <c r="Z239" s="5"/>
     </row>
-    <row r="240" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="9"/>
       <c r="C240" s="37"/>
@@ -7632,7 +7743,7 @@
       <c r="Y240" s="8"/>
       <c r="Z240" s="8"/>
     </row>
-    <row r="241" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="9"/>
       <c r="C241" s="37"/>
@@ -7660,7 +7771,7 @@
       <c r="Y241" s="8"/>
       <c r="Z241" s="8"/>
     </row>
-    <row r="242" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="15"/>
@@ -7688,7 +7799,7 @@
       <c r="Y242" s="8"/>
       <c r="Z242" s="8"/>
     </row>
-    <row r="243" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
       <c r="B243" s="6"/>
       <c r="C243" s="3"/>
@@ -7716,7 +7827,7 @@
       <c r="Y243" s="8"/>
       <c r="Z243" s="8"/>
     </row>
-    <row r="244" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
       <c r="B244" s="6"/>
       <c r="C244" s="3"/>
@@ -7744,7 +7855,7 @@
       <c r="Y244" s="8"/>
       <c r="Z244" s="8"/>
     </row>
-    <row r="245" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
       <c r="B245" s="6"/>
       <c r="C245" s="3"/>
@@ -7772,7 +7883,7 @@
       <c r="Y245" s="8"/>
       <c r="Z245" s="8"/>
     </row>
-    <row r="246" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="9"/>
       <c r="B246" s="6"/>
       <c r="C246" s="3"/>
@@ -7800,7 +7911,7 @@
       <c r="Y246" s="8"/>
       <c r="Z246" s="8"/>
     </row>
-    <row r="247" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
       <c r="B247" s="6"/>
       <c r="C247" s="3"/>
@@ -7828,7 +7939,7 @@
       <c r="Y247" s="8"/>
       <c r="Z247" s="8"/>
     </row>
-    <row r="248" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
       <c r="B248" s="6"/>
       <c r="C248" s="3"/>
@@ -7856,7 +7967,7 @@
       <c r="Y248" s="8"/>
       <c r="Z248" s="8"/>
     </row>
-    <row r="249" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="14"/>
@@ -7884,7 +7995,7 @@
       <c r="Y249" s="8"/>
       <c r="Z249" s="8"/>
     </row>
-    <row r="250" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
       <c r="B250" s="2"/>
       <c r="C250" s="3"/>
@@ -7912,7 +8023,7 @@
       <c r="Y250" s="8"/>
       <c r="Z250" s="8"/>
     </row>
-    <row r="251" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
       <c r="B251" s="2"/>
       <c r="C251" s="3"/>
@@ -7940,7 +8051,7 @@
       <c r="Y251" s="8"/>
       <c r="Z251" s="8"/>
     </row>
-    <row r="252" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="2"/>
       <c r="C252" s="3"/>
@@ -7968,7 +8079,7 @@
       <c r="Y252" s="8"/>
       <c r="Z252" s="8"/>
     </row>
-    <row r="253" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3"/>
@@ -7996,7 +8107,7 @@
       <c r="Y253" s="8"/>
       <c r="Z253" s="8"/>
     </row>
-    <row r="254" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
       <c r="B254" s="2"/>
       <c r="C254" s="3"/>
@@ -8024,7 +8135,7 @@
       <c r="Y254" s="8"/>
       <c r="Z254" s="8"/>
     </row>
-    <row r="255" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3"/>
@@ -8052,7 +8163,7 @@
       <c r="Y255" s="8"/>
       <c r="Z255" s="8"/>
     </row>
-    <row r="256" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="14"/>
@@ -8080,7 +8191,7 @@
       <c r="Y256" s="8"/>
       <c r="Z256" s="8"/>
     </row>
-    <row r="257" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="3"/>
@@ -8108,7 +8219,7 @@
       <c r="Y257" s="8"/>
       <c r="Z257" s="8"/>
     </row>
-    <row r="258" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="3"/>
@@ -8136,7 +8247,7 @@
       <c r="Y258" s="8"/>
       <c r="Z258" s="8"/>
     </row>
-    <row r="259" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="2"/>
       <c r="C259" s="3"/>
@@ -8164,7 +8275,7 @@
       <c r="Y259" s="8"/>
       <c r="Z259" s="8"/>
     </row>
-    <row r="260" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="3"/>
@@ -8192,7 +8303,7 @@
       <c r="Y260" s="8"/>
       <c r="Z260" s="8"/>
     </row>
-    <row r="261" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
       <c r="B261" s="2"/>
       <c r="C261" s="3"/>
@@ -8220,7 +8331,7 @@
       <c r="Y261" s="8"/>
       <c r="Z261" s="8"/>
     </row>
-    <row r="262" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
       <c r="B262" s="2"/>
       <c r="C262" s="3"/>
@@ -8248,7 +8359,7 @@
       <c r="Y262" s="8"/>
       <c r="Z262" s="8"/>
     </row>
-    <row r="263" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
       <c r="B263" s="2"/>
       <c r="C263" s="3"/>
@@ -8276,7 +8387,7 @@
       <c r="Y263" s="8"/>
       <c r="Z263" s="8"/>
     </row>
-    <row r="264" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="3"/>
@@ -8304,7 +8415,7 @@
       <c r="Y264" s="8"/>
       <c r="Z264" s="8"/>
     </row>
-    <row r="265" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="9"/>
       <c r="B265" s="2"/>
       <c r="C265" s="3"/>
@@ -8332,7 +8443,7 @@
       <c r="Y265" s="8"/>
       <c r="Z265" s="8"/>
     </row>
-    <row r="266" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
       <c r="B266" s="2"/>
       <c r="C266" s="3"/>
@@ -8360,7 +8471,7 @@
       <c r="Y266" s="8"/>
       <c r="Z266" s="8"/>
     </row>
-    <row r="267" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
       <c r="B267" s="2"/>
       <c r="C267" s="3"/>
@@ -8388,7 +8499,7 @@
       <c r="Y267" s="8"/>
       <c r="Z267" s="8"/>
     </row>
-    <row r="268" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
       <c r="B268" s="2"/>
       <c r="C268" s="3"/>
@@ -8416,7 +8527,7 @@
       <c r="Y268" s="8"/>
       <c r="Z268" s="8"/>
     </row>
-    <row r="269" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
       <c r="B269" s="2"/>
       <c r="C269" s="3"/>
@@ -8444,7 +8555,7 @@
       <c r="Y269" s="8"/>
       <c r="Z269" s="8"/>
     </row>
-    <row r="270" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
       <c r="B270" s="2"/>
       <c r="C270" s="3"/>
@@ -8472,7 +8583,7 @@
       <c r="Y270" s="8"/>
       <c r="Z270" s="8"/>
     </row>
-    <row r="271" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
       <c r="B271" s="2"/>
       <c r="C271" s="3"/>
@@ -8500,7 +8611,7 @@
       <c r="Y271" s="8"/>
       <c r="Z271" s="8"/>
     </row>
-    <row r="272" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3"/>
@@ -8528,7 +8639,7 @@
       <c r="Y272" s="8"/>
       <c r="Z272" s="8"/>
     </row>
-    <row r="273" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
       <c r="B273" s="2"/>
       <c r="C273" s="3"/>
@@ -8556,7 +8667,7 @@
       <c r="Y273" s="8"/>
       <c r="Z273" s="8"/>
     </row>
-    <row r="274" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
       <c r="B274" s="2"/>
       <c r="C274" s="3"/>
@@ -8584,7 +8695,7 @@
       <c r="Y274" s="8"/>
       <c r="Z274" s="8"/>
     </row>
-    <row r="275" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
       <c r="B275" s="2"/>
       <c r="C275" s="3"/>
@@ -8612,7 +8723,7 @@
       <c r="Y275" s="8"/>
       <c r="Z275" s="8"/>
     </row>
-    <row r="276" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
       <c r="B276" s="2"/>
       <c r="C276" s="3"/>
@@ -8640,7 +8751,7 @@
       <c r="Y276" s="8"/>
       <c r="Z276" s="8"/>
     </row>
-    <row r="277" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
       <c r="B277" s="2"/>
       <c r="C277" s="3"/>
@@ -8668,7 +8779,7 @@
       <c r="Y277" s="8"/>
       <c r="Z277" s="8"/>
     </row>
-    <row r="278" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
       <c r="B278" s="20"/>
       <c r="C278" s="21"/>
@@ -8696,7 +8807,7 @@
       <c r="Y278" s="8"/>
       <c r="Z278" s="8"/>
     </row>
-    <row r="279" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="20"/>
       <c r="C279" s="21"/>
@@ -8724,7 +8835,7 @@
       <c r="Y279" s="8"/>
       <c r="Z279" s="8"/>
     </row>
-    <row r="280" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="8"/>
       <c r="C280" s="15"/>
@@ -8752,7 +8863,7 @@
       <c r="Y280" s="8"/>
       <c r="Z280" s="8"/>
     </row>
-    <row r="281" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="8"/>
       <c r="C281" s="15"/>
@@ -8780,7 +8891,7 @@
       <c r="Y281" s="8"/>
       <c r="Z281" s="8"/>
     </row>
-    <row r="282" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="8"/>
       <c r="C282" s="15"/>
@@ -8808,7 +8919,7 @@
       <c r="Y282" s="8"/>
       <c r="Z282" s="8"/>
     </row>
-    <row r="283" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="8"/>
       <c r="C283" s="15"/>
@@ -8836,7 +8947,7 @@
       <c r="Y283" s="8"/>
       <c r="Z283" s="8"/>
     </row>
-    <row r="284" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="8"/>
       <c r="C284" s="15"/>
@@ -8864,7 +8975,7 @@
       <c r="Y284" s="8"/>
       <c r="Z284" s="8"/>
     </row>
-    <row r="285" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="8"/>
       <c r="C285" s="15"/>
@@ -8892,7 +9003,7 @@
       <c r="Y285" s="8"/>
       <c r="Z285" s="8"/>
     </row>
-    <row r="286" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="8"/>
       <c r="C286" s="15"/>
@@ -8920,7 +9031,7 @@
       <c r="Y286" s="8"/>
       <c r="Z286" s="8"/>
     </row>
-    <row r="287" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="8"/>
       <c r="C287" s="15"/>
@@ -8948,7 +9059,7 @@
       <c r="Y287" s="8"/>
       <c r="Z287" s="8"/>
     </row>
-    <row r="288" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="8"/>
       <c r="C288" s="15"/>
@@ -8976,7 +9087,7 @@
       <c r="Y288" s="8"/>
       <c r="Z288" s="8"/>
     </row>
-    <row r="289" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="8"/>
       <c r="C289" s="15"/>
@@ -9004,7 +9115,7 @@
       <c r="Y289" s="8"/>
       <c r="Z289" s="8"/>
     </row>
-    <row r="290" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="8"/>
       <c r="C290" s="15"/>
@@ -9032,7 +9143,7 @@
       <c r="Y290" s="8"/>
       <c r="Z290" s="8"/>
     </row>
-    <row r="291" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
       <c r="B291" s="8"/>
       <c r="C291" s="15"/>
@@ -9060,7 +9171,7 @@
       <c r="Y291" s="8"/>
       <c r="Z291" s="8"/>
     </row>
-    <row r="292" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="C292" s="15"/>
@@ -9088,7 +9199,7 @@
       <c r="Y292" s="8"/>
       <c r="Z292" s="8"/>
     </row>
-    <row r="293" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="C293" s="15"/>
@@ -9116,7 +9227,7 @@
       <c r="Y293" s="8"/>
       <c r="Z293" s="8"/>
     </row>
-    <row r="294" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="C294" s="15"/>
@@ -9144,7 +9255,7 @@
       <c r="Y294" s="8"/>
       <c r="Z294" s="8"/>
     </row>
-    <row r="295" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="8"/>
       <c r="C295" s="15"/>
@@ -9172,7 +9283,7 @@
       <c r="Y295" s="8"/>
       <c r="Z295" s="8"/>
     </row>
-    <row r="296" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="15"/>
@@ -9200,7 +9311,7 @@
       <c r="Y296" s="8"/>
       <c r="Z296" s="8"/>
     </row>
-    <row r="297" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="C297" s="15"/>
@@ -9228,7 +9339,7 @@
       <c r="Y297" s="8"/>
       <c r="Z297" s="8"/>
     </row>
-    <row r="298" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="15"/>
@@ -9256,7 +9367,7 @@
       <c r="Y298" s="8"/>
       <c r="Z298" s="8"/>
     </row>
-    <row r="299" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="C299" s="15"/>
@@ -9284,7 +9395,7 @@
       <c r="Y299" s="8"/>
       <c r="Z299" s="8"/>
     </row>
-    <row r="300" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="15"/>
@@ -9312,7 +9423,7 @@
       <c r="Y300" s="8"/>
       <c r="Z300" s="8"/>
     </row>
-    <row r="301" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="C301" s="15"/>
@@ -9340,7 +9451,7 @@
       <c r="Y301" s="8"/>
       <c r="Z301" s="8"/>
     </row>
-    <row r="302" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="8"/>
       <c r="C302" s="15"/>
@@ -9368,7 +9479,7 @@
       <c r="Y302" s="8"/>
       <c r="Z302" s="8"/>
     </row>
-    <row r="303" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="8"/>
       <c r="C303" s="15"/>
@@ -9396,7 +9507,7 @@
       <c r="Y303" s="8"/>
       <c r="Z303" s="8"/>
     </row>
-    <row r="304" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="8"/>
       <c r="C304" s="15"/>
@@ -9424,7 +9535,7 @@
       <c r="Y304" s="8"/>
       <c r="Z304" s="8"/>
     </row>
-    <row r="305" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="8"/>
       <c r="C305" s="15"/>
@@ -9452,7 +9563,7 @@
       <c r="Y305" s="8"/>
       <c r="Z305" s="8"/>
     </row>
-    <row r="306" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="8"/>
       <c r="C306" s="15"/>
@@ -9480,7 +9591,7 @@
       <c r="Y306" s="8"/>
       <c r="Z306" s="8"/>
     </row>
-    <row r="307" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="8"/>
       <c r="C307" s="15"/>
@@ -9508,7 +9619,7 @@
       <c r="Y307" s="8"/>
       <c r="Z307" s="8"/>
     </row>
-    <row r="308" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="8"/>
       <c r="C308" s="15"/>
@@ -9536,7 +9647,7 @@
       <c r="Y308" s="8"/>
       <c r="Z308" s="8"/>
     </row>
-    <row r="309" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="8"/>
       <c r="B309" s="8"/>
       <c r="C309" s="15"/>
@@ -9564,7 +9675,7 @@
       <c r="Y309" s="8"/>
       <c r="Z309" s="8"/>
     </row>
-    <row r="310" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="8"/>
       <c r="C310" s="15"/>
@@ -9594,5 +9705,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RS03ASHS/Omaha_Cal_Info_RS03ASHS_00001.xlsx
+++ b/RS03ASHS/Omaha_Cal_Info_RS03ASHS_00001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Test and Commissioning OOI\Cabled Instruments\Repaired GIT 20150715\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Ref Des</t>
   </si>
@@ -108,6 +108,9 @@
   <si>
     <t>Need to fix parameters in red.</t>
   </si>
+  <si>
+    <t>RS03ASHS-ID03A-00001</t>
+  </si>
 </sst>
 </file>
 
@@ -116,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -216,19 +219,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +242,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -473,12 +476,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,12 +789,13 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -903,8 +907,8 @@
       <c r="A3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>12</v>
+      <c r="B3" s="75" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="70">
         <v>1</v>
@@ -963,7 +967,7 @@
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
-      <c r="L4" s="75" t="s">
+      <c r="L4" s="74" t="s">
         <v>28</v>
       </c>
       <c r="M4" s="48"/>
@@ -980,12 +984,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1209,22 +1214,22 @@
       <c r="Y7" s="58"/>
       <c r="Z7" s="58"/>
     </row>
-    <row r="8" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>12</v>
+      <c r="B8" s="75" t="s">
+        <v>29</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="73">
         <v>1</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="73">
         <v>1</v>
       </c>
       <c r="E8" s="63"/>
       <c r="F8" s="64"/>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="74" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="58"/>
